--- a/REGULAR/PAITON, MARY ANN.xlsx
+++ b/REGULAR/PAITON, MARY ANN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CHARACTER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60966575-5B5C-4741-A309-D46C9B1CC004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E15FE-BB73-4E42-AF76-C51434C6C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="274">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1267,6 +1267,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,9 +1305,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3671,7 +3671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3888" topLeftCell="A516" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B521" sqref="B521"/>
+      <selection pane="bottomLeft" activeCell="B522" sqref="B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3693,58 +3693,58 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3770,18 +3770,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3828,7 +3828,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>163.86500000000001</v>
+        <v>165.11500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3838,7 +3838,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>202</v>
+        <v>202.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14752,19 +14752,27 @@
       <c r="A521" s="40">
         <v>44986</v>
       </c>
-      <c r="B521" s="20"/>
-      <c r="C521" s="13"/>
+      <c r="B521" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H521" s="39"/>
+      <c r="G521" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H521" s="39">
+        <v>1</v>
+      </c>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="20"/>
+      <c r="K521" s="48">
+        <v>45012</v>
+      </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
@@ -17775,7 +17783,7 @@
       <c r="K699" s="20"/>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A700" s="65"/>
+      <c r="A700" s="53"/>
       <c r="B700" s="15"/>
       <c r="C700" s="41"/>
       <c r="D700" s="42"/>
@@ -17854,17 +17862,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -17945,12 +17953,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/PAITON, MARY ANN.xlsx
+++ b/REGULAR/PAITON, MARY ANN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E15FE-BB73-4E42-AF76-C51434C6C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A6A01-455A-4336-9F51-60A902D7EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="278">
   <si>
     <t>PERIOD</t>
   </si>
@@ -857,6 +857,18 @@
   </si>
   <si>
     <t>9/29,30</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>2/27,28, 3/1</t>
   </si>
 </sst>
 </file>
@@ -3289,7 +3301,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K700" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K701" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3667,11 +3679,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K700"/>
+  <dimension ref="A2:K701"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3888" topLeftCell="A516" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B522" sqref="B522"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B524" sqref="B524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3732,12 +3745,16 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="55" t="s">
+        <v>274</v>
+      </c>
       <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="60" t="s">
+        <v>275</v>
+      </c>
       <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3838,7 +3855,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>202.25</v>
+        <v>198.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14749,54 +14766,60 @@
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A521" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C521" s="13">
-        <v>1.25</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C521" s="13"/>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G521" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H521" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="48">
-        <v>45012</v>
+      <c r="K521" s="48" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B522" s="20"/>
-      <c r="C522" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B522" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C522" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H522" s="39"/>
+      <c r="G522" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H522" s="39">
+        <v>1</v>
+      </c>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="20"/>
+      <c r="K522" s="48">
+        <v>45012</v>
+      </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B523" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B523" s="20" t="s">
+        <v>268</v>
+      </c>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
       <c r="E523" s="9"/>
@@ -14805,14 +14828,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H523" s="39"/>
+      <c r="H523" s="39">
+        <v>1</v>
+      </c>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="20"/>
+      <c r="K523" s="48">
+        <v>45027</v>
+      </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -14830,7 +14857,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -14848,7 +14875,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -14866,7 +14893,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14884,7 +14911,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14902,7 +14929,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14920,7 +14947,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14938,7 +14965,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14956,7 +14983,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14974,7 +15001,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14992,7 +15019,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15010,7 +15037,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15028,7 +15055,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15046,7 +15073,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15064,7 +15091,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15082,7 +15109,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15100,7 +15127,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15118,7 +15145,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15136,7 +15163,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15154,7 +15181,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15172,7 +15199,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15190,7 +15217,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15208,7 +15235,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15226,7 +15253,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15244,7 +15271,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15262,7 +15289,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15280,7 +15307,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15298,7 +15325,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15316,7 +15343,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15334,7 +15361,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15352,7 +15379,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15370,7 +15397,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15388,7 +15415,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15406,7 +15433,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15424,7 +15451,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15442,7 +15469,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15460,7 +15487,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15478,7 +15505,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15496,7 +15523,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15514,7 +15541,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15532,7 +15559,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15550,7 +15577,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15568,7 +15595,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15586,7 +15613,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15604,7 +15631,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15622,7 +15649,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15640,7 +15667,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15658,7 +15685,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15676,7 +15703,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15694,7 +15721,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15712,7 +15739,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15730,7 +15757,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15748,7 +15775,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15766,7 +15793,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15784,7 +15811,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15802,7 +15829,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15820,7 +15847,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15838,7 +15865,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15856,7 +15883,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15874,7 +15901,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15892,7 +15919,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15910,7 +15937,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15928,7 +15955,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15946,7 +15973,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15964,7 +15991,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15982,7 +16009,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16000,7 +16027,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16018,7 +16045,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16036,7 +16063,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16054,7 +16081,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16072,7 +16099,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16090,7 +16117,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16108,7 +16135,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16126,7 +16153,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16144,7 +16171,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16162,7 +16189,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16180,7 +16207,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16198,7 +16225,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16215,7 +16242,9 @@
       <c r="K601" s="20"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A602" s="40"/>
+      <c r="A602" s="40">
+        <v>47423</v>
+      </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
       <c r="D602" s="39"/>
@@ -17783,20 +17812,36 @@
       <c r="K699" s="20"/>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A700" s="53"/>
-      <c r="B700" s="15"/>
-      <c r="C700" s="41"/>
-      <c r="D700" s="42"/>
+      <c r="A700" s="40"/>
+      <c r="B700" s="20"/>
+      <c r="C700" s="13"/>
+      <c r="D700" s="39"/>
       <c r="E700" s="9"/>
-      <c r="F700" s="15"/>
-      <c r="G700" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H700" s="42"/>
+      <c r="F700" s="20"/>
+      <c r="G700" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H700" s="39"/>
       <c r="I700" s="9"/>
-      <c r="J700" s="12"/>
-      <c r="K700" s="15"/>
+      <c r="J700" s="11"/>
+      <c r="K700" s="20"/>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A701" s="53"/>
+      <c r="B701" s="15"/>
+      <c r="C701" s="41"/>
+      <c r="D701" s="42"/>
+      <c r="E701" s="9"/>
+      <c r="F701" s="15"/>
+      <c r="G701" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H701" s="42"/>
+      <c r="I701" s="9"/>
+      <c r="J701" s="12"/>
+      <c r="K701" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17812,7 +17857,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>

--- a/REGULAR/PAITON, MARY ANN.xlsx
+++ b/REGULAR/PAITON, MARY ANN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A6A01-455A-4336-9F51-60A902D7EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="278">
   <si>
     <t>PERIOD</t>
   </si>
@@ -874,7 +873,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1766,7 +1765,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1808,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1872,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1932,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +1998,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2061,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2159,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2218,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2283,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2326,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2401,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2587,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2653,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2711,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2777,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2833,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,7 +2908,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,7 +2951,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,7 +3017,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3073,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3172,7 +3171,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3234,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3301,25 +3300,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K701" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K701" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3331,13 +3330,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3346,14 +3345,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3657,7 +3656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3667,7 +3666,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3675,34 +3674,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K701"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A516" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B524" sqref="B524"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3885" topLeftCell="A516"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="K526" sqref="K526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3723,7 +3722,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3741,7 +3740,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3763,7 +3762,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3771,7 +3770,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3784,7 +3783,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3801,7 +3800,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3845,7 +3844,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>165.11500000000001</v>
+        <v>167.61500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3855,12 +3854,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>198.25</v>
+        <v>199.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3882,7 +3881,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36220</v>
       </c>
@@ -3902,7 +3901,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36251</v>
@@ -3923,7 +3922,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A18" si="0">EDATE(A12,1)</f>
         <v>36281</v>
@@ -3944,7 +3943,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -3965,7 +3964,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -3986,7 +3985,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -4007,7 +4006,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -4028,7 +4027,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -4049,7 +4048,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>36465</v>
@@ -4072,7 +4071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -4090,7 +4089,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A19,1)</f>
         <v>36495</v>
@@ -4115,7 +4114,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -4137,7 +4136,7 @@
         <v>36172</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4159,7 +4158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -4177,7 +4176,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>51</v>
       </c>
@@ -4195,7 +4194,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36526</v>
       </c>
@@ -4215,7 +4214,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f>EDATE(A26,1)</f>
         <v>36557</v>
@@ -4236,7 +4235,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" ref="A28:A39" si="1">EDATE(A27,1)</f>
         <v>36586</v>
@@ -4261,7 +4260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>44</v>
@@ -4281,7 +4280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -4299,7 +4298,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A28,1)</f>
         <v>36617</v>
@@ -4322,7 +4321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -4340,7 +4339,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36647</v>
@@ -4361,7 +4360,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -4382,7 +4381,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -4403,7 +4402,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -4424,7 +4423,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>36770</v>
@@ -4445,7 +4444,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -4466,7 +4465,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -4491,7 +4490,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>44</v>
@@ -4511,7 +4510,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4529,7 +4528,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36861</v>
@@ -4554,7 +4553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -4572,7 +4571,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>60</v>
       </c>
@@ -4590,7 +4589,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36892</v>
       </c>
@@ -4610,7 +4609,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>36923</v>
@@ -4631,7 +4630,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" ref="A47:A58" si="2">EDATE(A46,1)</f>
         <v>36951</v>
@@ -4656,7 +4655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4674,7 +4673,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36982</v>
@@ -4695,7 +4694,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -4716,7 +4715,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -4737,7 +4736,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -4758,7 +4757,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -4779,7 +4778,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -4804,7 +4803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>44</v>
@@ -4824,7 +4823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4842,7 +4841,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A54,1)</f>
         <v>37165</v>
@@ -4863,7 +4862,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>37196</v>
@@ -4888,7 +4887,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>46</v>
@@ -4910,7 +4909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4928,7 +4927,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A58,1)</f>
         <v>37226</v>
@@ -4949,7 +4948,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>67</v>
       </c>
@@ -4967,7 +4966,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37257</v>
       </c>
@@ -4987,7 +4986,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>37288</v>
@@ -5008,7 +5007,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A75" si="3">EDATE(A64,1)</f>
         <v>37316</v>
@@ -5033,7 +5032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -5051,7 +5050,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>37347</v>
@@ -5072,7 +5071,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>37377</v>
@@ -5095,7 +5094,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -5113,7 +5112,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>37408</v>
@@ -5134,7 +5133,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A70,1)</f>
         <v>37438</v>
@@ -5159,7 +5158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -5177,7 +5176,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A71,1)</f>
         <v>37469</v>
@@ -5198,7 +5197,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -5219,7 +5218,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -5244,7 +5243,7 @@
         <v>37325</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>44</v>
@@ -5264,7 +5263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -5282,7 +5281,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>37561</v>
@@ -5307,7 +5306,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>58</v>
@@ -5329,7 +5328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -5347,7 +5346,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A78,1)</f>
         <v>37591</v>
@@ -5368,7 +5367,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
         <v>74</v>
       </c>
@@ -5386,7 +5385,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37622</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>44</v>
@@ -5430,7 +5429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>55</v>
@@ -5452,7 +5451,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>48</v>
@@ -5474,7 +5473,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5492,7 +5491,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A83,1)</f>
         <v>37653</v>
@@ -5513,7 +5512,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" ref="A89:A106" si="4">EDATE(A88,1)</f>
         <v>37681</v>
@@ -5538,7 +5537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>48</v>
@@ -5560,7 +5559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5578,7 +5577,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A89,1)</f>
         <v>37712</v>
@@ -5603,7 +5602,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>44</v>
@@ -5623,7 +5622,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5641,7 +5640,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>37742</v>
@@ -5666,7 +5665,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5684,7 +5683,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>37773</v>
@@ -5709,7 +5708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>48</v>
@@ -5731,7 +5730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -5749,7 +5748,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A97,1)</f>
         <v>37803</v>
@@ -5774,7 +5773,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5792,7 +5791,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>37834</v>
@@ -5815,7 +5814,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>37865</v>
@@ -5836,7 +5835,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -5857,7 +5856,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="4"/>
         <v>37926</v>
@@ -5878,7 +5877,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -5903,7 +5902,7 @@
         <v>37633</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -5925,7 +5924,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5943,7 +5942,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
         <v>91</v>
       </c>
@@ -5961,7 +5960,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37987</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -6005,7 +6004,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -6023,7 +6022,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A110,1)</f>
         <v>38018</v>
@@ -6044,7 +6043,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" ref="A114:A122" si="5">EDATE(A113,1)</f>
         <v>38047</v>
@@ -6069,7 +6068,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -6087,7 +6086,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>38078</v>
@@ -6108,7 +6107,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -6133,7 +6132,7 @@
         <v>37992</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6151,7 +6150,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>38139</v>
@@ -6172,7 +6171,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -6193,7 +6192,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="5"/>
         <v>38200</v>
@@ -6214,7 +6213,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="5"/>
         <v>38231</v>
@@ -6239,7 +6238,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6257,7 +6256,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>38261</v>
@@ -6280,7 +6279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6298,7 +6297,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>38292</v>
@@ -6319,7 +6318,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A126,1)</f>
         <v>38322</v>
@@ -6342,7 +6341,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6360,7 +6359,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
         <v>98</v>
       </c>
@@ -6378,7 +6377,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38353</v>
       </c>
@@ -6398,7 +6397,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A130,1)</f>
         <v>38384</v>
@@ -6421,7 +6420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>48</v>
@@ -6443,7 +6442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -6461,7 +6460,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A131,1)</f>
         <v>38412</v>
@@ -6486,7 +6485,7 @@
         <v>38386</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -6504,7 +6503,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>38443</v>
@@ -6525,7 +6524,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A142" si="6">EDATE(A136,1)</f>
         <v>38473</v>
@@ -6546,7 +6545,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="6"/>
         <v>38504</v>
@@ -6571,7 +6570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13">
@@ -6589,7 +6588,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f>EDATE(A138,1)</f>
         <v>38534</v>
@@ -6610,7 +6609,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="6"/>
         <v>38565</v>
@@ -6631,7 +6630,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -6656,7 +6655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>103</v>
@@ -6678,7 +6677,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>44</v>
@@ -6698,7 +6697,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6716,7 +6715,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A142,1)</f>
         <v>38626</v>
@@ -6737,7 +6736,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A146,1)</f>
         <v>38657</v>
@@ -6762,7 +6761,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>106</v>
@@ -6784,7 +6783,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
@@ -6802,7 +6801,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A147,1)</f>
         <v>38687</v>
@@ -6825,7 +6824,7 @@
         <v>38596</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -6843,7 +6842,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="47" t="s">
         <v>109</v>
       </c>
@@ -6861,7 +6860,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38718</v>
       </c>
@@ -6881,7 +6880,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A153,1)</f>
         <v>38749</v>
@@ -6902,7 +6901,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" ref="A155:A167" si="7">EDATE(A154,1)</f>
         <v>38777</v>
@@ -6927,7 +6926,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>48</v>
@@ -6949,7 +6948,7 @@
         <v>38781</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -6967,7 +6966,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38808</v>
@@ -6988,7 +6987,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -7009,7 +7008,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="7"/>
         <v>38869</v>
@@ -7030,7 +7029,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -7051,7 +7050,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -7074,7 +7073,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>85</v>
@@ -7096,7 +7095,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13">
@@ -7114,7 +7113,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>38961</v>
@@ -7135,7 +7134,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -7156,7 +7155,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -7181,7 +7180,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>115</v>
@@ -7201,7 +7200,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -7219,7 +7218,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A167,1)</f>
         <v>39052</v>
@@ -7240,7 +7239,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="47" t="s">
         <v>117</v>
       </c>
@@ -7258,7 +7257,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39083</v>
       </c>
@@ -7280,7 +7279,7 @@
         <v>39326</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -7298,7 +7297,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>39114</v>
@@ -7321,7 +7320,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -7339,7 +7338,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>39142</v>
@@ -7364,7 +7363,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13">
@@ -7382,7 +7381,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>39173</v>
@@ -7407,7 +7406,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" ref="A179:A184" si="8">EDATE(A178,1)</f>
         <v>39203</v>
@@ -7434,7 +7433,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="8"/>
         <v>39234</v>
@@ -7455,7 +7454,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -7476,7 +7475,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -7501,7 +7500,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="8"/>
         <v>39326</v>
@@ -7526,7 +7525,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -7547,7 +7546,7 @@
       <c r="J184" s="12"/>
       <c r="K184" s="15"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>44</v>
@@ -7567,7 +7566,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>39387</v>
@@ -7594,7 +7593,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>44</v>
@@ -7614,7 +7613,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>39417</v>
@@ -7635,7 +7634,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>127</v>
       </c>
@@ -7653,7 +7652,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39448</v>
       </c>
@@ -7677,7 +7676,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f>EDATE(A190,1)</f>
         <v>39479</v>
@@ -7702,7 +7701,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" ref="A192:A202" si="9">EDATE(A191,1)</f>
         <v>39508</v>
@@ -7727,7 +7726,7 @@
       <c r="J192" s="12"/>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="9"/>
         <v>39539</v>
@@ -7752,7 +7751,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="9"/>
         <v>39569</v>
@@ -7777,7 +7776,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="9"/>
         <v>39600</v>
@@ -7802,7 +7801,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="9"/>
         <v>39630</v>
@@ -7827,7 +7826,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="9"/>
         <v>39661</v>
@@ -7852,7 +7851,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="9"/>
         <v>39692</v>
@@ -7875,7 +7874,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>44</v>
@@ -7895,7 +7894,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7913,7 +7912,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39722</v>
@@ -7938,7 +7937,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="9"/>
         <v>39753</v>
@@ -7961,7 +7960,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>139</v>
@@ -7983,7 +7982,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>141</v>
@@ -8005,7 +8004,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>39783</v>
@@ -8030,7 +8029,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>143</v>
       </c>
@@ -8048,7 +8047,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39814</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -8088,7 +8087,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>39845</v>
@@ -8109,7 +8108,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" ref="A210:A221" si="10">EDATE(A209,1)</f>
         <v>39873</v>
@@ -8132,7 +8131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -8150,7 +8149,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39904</v>
@@ -8171,7 +8170,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="10"/>
         <v>39934</v>
@@ -8192,7 +8191,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="10"/>
         <v>39965</v>
@@ -8213,7 +8212,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="10"/>
         <v>39995</v>
@@ -8234,7 +8233,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="10"/>
         <v>40026</v>
@@ -8255,7 +8254,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="10"/>
         <v>40057</v>
@@ -8276,7 +8275,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="10"/>
         <v>40087</v>
@@ -8301,7 +8300,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -8319,7 +8318,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>40118</v>
@@ -8340,7 +8339,7 @@
       <c r="J220" s="12"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="10"/>
         <v>40148</v>
@@ -8365,7 +8364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>49</v>
@@ -8387,7 +8386,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -8405,7 +8404,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="47" t="s">
         <v>148</v>
       </c>
@@ -8423,7 +8422,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>40179</v>
       </c>
@@ -8443,7 +8442,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A225,1)</f>
         <v>40210</v>
@@ -8466,7 +8465,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -8484,7 +8483,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>40238</v>
@@ -8505,7 +8504,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" ref="A229:A233" si="11">EDATE(A228,1)</f>
         <v>40269</v>
@@ -8526,7 +8525,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="11"/>
         <v>40299</v>
@@ -8551,7 +8550,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="11"/>
         <v>40330</v>
@@ -8576,7 +8575,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="11"/>
         <v>40360</v>
@@ -8601,7 +8600,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="11"/>
         <v>40391</v>
@@ -8626,7 +8625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8644,7 +8643,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>40422</v>
@@ -8669,7 +8668,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>122</v>
@@ -8691,7 +8690,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>40452</v>
@@ -8714,7 +8713,7 @@
         <v>40401</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13">
@@ -8732,7 +8731,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>40483</v>
@@ -8757,7 +8756,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13">
@@ -8775,7 +8774,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>40513</v>
@@ -8796,7 +8795,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="47" t="s">
         <v>156</v>
       </c>
@@ -8814,7 +8813,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40544</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>40848</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8854,7 +8853,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40575</v>
@@ -8875,7 +8874,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A255" si="12">EDATE(A245,1)</f>
         <v>40603</v>
@@ -8896,7 +8895,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="12"/>
         <v>40634</v>
@@ -8917,7 +8916,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="12"/>
         <v>40664</v>
@@ -8942,7 +8941,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>48</v>
@@ -8964,7 +8963,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13">
@@ -8982,7 +8981,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A248,1)</f>
         <v>40695</v>
@@ -9003,7 +9002,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="12"/>
         <v>40725</v>
@@ -9024,7 +9023,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="12"/>
         <v>40756</v>
@@ -9045,7 +9044,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="12"/>
         <v>40787</v>
@@ -9066,7 +9065,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="12"/>
         <v>40817</v>
@@ -9089,7 +9088,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>152</v>
@@ -9111,7 +9110,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>40848</v>
@@ -9136,7 +9135,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>44</v>
@@ -9156,7 +9155,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9174,7 +9173,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>40878</v>
@@ -9196,7 +9195,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>161</v>
@@ -9218,7 +9217,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="47" t="s">
         <v>162</v>
       </c>
@@ -9236,7 +9235,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40909</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>41153</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>48</v>
@@ -9280,7 +9279,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13">
@@ -9298,7 +9297,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A263,1)</f>
         <v>40940</v>
@@ -9323,7 +9322,7 @@
         <v>40941</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -9341,7 +9340,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="48"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40969</v>
@@ -9366,7 +9365,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>44</v>
@@ -9386,7 +9385,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13">
@@ -9404,7 +9403,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>41000</v>
@@ -9429,7 +9428,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A278" si="13">EDATE(A271,1)</f>
         <v>41030</v>
@@ -9454,7 +9453,7 @@
         <v>41095</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -9472,7 +9471,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>41061</v>
@@ -9497,7 +9496,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="13"/>
         <v>41091</v>
@@ -9522,7 +9521,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -9540,7 +9539,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>41122</v>
@@ -9561,7 +9560,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="13"/>
         <v>41153</v>
@@ -9586,7 +9585,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9604,7 +9603,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>41183</v>
@@ -9627,7 +9626,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13">
@@ -9645,7 +9644,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>41214</v>
@@ -9670,7 +9669,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9688,7 +9687,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>41244</v>
@@ -9709,7 +9708,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="47" t="s">
         <v>170</v>
       </c>
@@ -9727,7 +9726,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>41275</v>
       </c>
@@ -9751,7 +9750,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>171</v>
@@ -9771,7 +9770,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>41306</v>
@@ -9796,7 +9795,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" ref="A289:A295" si="14">EDATE(A288,1)</f>
         <v>41334</v>
@@ -9821,7 +9820,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="14"/>
         <v>41365</v>
@@ -9846,7 +9845,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="14"/>
         <v>41395</v>
@@ -9867,7 +9866,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="14"/>
         <v>41426</v>
@@ -9888,7 +9887,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="14"/>
         <v>41456</v>
@@ -9909,7 +9908,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="14"/>
         <v>41487</v>
@@ -9930,7 +9929,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="14"/>
         <v>41518</v>
@@ -9955,7 +9954,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13">
@@ -9973,7 +9972,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A295,1)</f>
         <v>41548</v>
@@ -9996,7 +9995,7 @@
         <v>41405</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -10018,7 +10017,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -10036,7 +10035,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A297,1)</f>
         <v>41579</v>
@@ -10061,7 +10060,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13">
@@ -10079,7 +10078,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>41609</v>
@@ -10100,7 +10099,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="47" t="s">
         <v>176</v>
       </c>
@@ -10118,7 +10117,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>41640</v>
       </c>
@@ -10140,7 +10139,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13">
@@ -10158,7 +10157,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>41671</v>
@@ -10179,7 +10178,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A319" si="15">EDATE(A306,1)</f>
         <v>41699</v>
@@ -10204,7 +10203,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>48</v>
@@ -10226,7 +10225,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -10244,7 +10243,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A307,1)</f>
         <v>41730</v>
@@ -10269,7 +10268,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13">
@@ -10287,7 +10286,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>41760</v>
@@ -10308,7 +10307,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="15"/>
         <v>41791</v>
@@ -10333,7 +10332,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -10351,7 +10350,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>41821</v>
@@ -10376,7 +10375,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>152</v>
@@ -10398,7 +10397,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f>EDATE(A315,1)</f>
         <v>41852</v>
@@ -10423,7 +10422,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -10448,7 +10447,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="15"/>
         <v>41913</v>
@@ -10473,7 +10472,7 @@
         <v>41830</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>44</v>
@@ -10493,7 +10492,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>183</v>
@@ -10515,7 +10514,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>41944</v>
@@ -10540,7 +10539,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>185</v>
@@ -10562,7 +10561,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>187</v>
@@ -10584,7 +10583,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>41974</v>
@@ -10609,7 +10608,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="47" t="s">
         <v>189</v>
       </c>
@@ -10627,7 +10626,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>42005</v>
       </c>
@@ -10649,7 +10648,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -10667,7 +10666,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>42036</v>
@@ -10692,7 +10691,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>152</v>
@@ -10714,7 +10713,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>42064</v>
@@ -10737,7 +10736,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13">
@@ -10755,7 +10754,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>42095</v>
@@ -10776,7 +10775,7 @@
       <c r="J333" s="12"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" ref="A334:A345" si="16">EDATE(A333,1)</f>
         <v>42125</v>
@@ -10801,7 +10800,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="16"/>
         <v>42156</v>
@@ -10826,7 +10825,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="16"/>
         <v>42186</v>
@@ -10851,7 +10850,7 @@
         <v>42042</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>193</v>
@@ -10873,7 +10872,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>42217</v>
@@ -10894,7 +10893,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" si="16"/>
         <v>42248</v>
@@ -10919,7 +10918,7 @@
         <v>42044</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -10937,7 +10936,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>42278</v>
@@ -10962,7 +10961,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>195</v>
@@ -10984,7 +10983,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13">
@@ -11002,7 +11001,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>42309</v>
@@ -11027,7 +11026,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="16"/>
         <v>42339</v>
@@ -11052,7 +11051,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="47" t="s">
         <v>198</v>
       </c>
@@ -11070,7 +11069,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>42370</v>
       </c>
@@ -11090,7 +11089,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A347,1)</f>
         <v>42401</v>
@@ -11115,7 +11114,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13">
@@ -11133,7 +11132,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f>EDATE(A348,1)</f>
         <v>42430</v>
@@ -11154,7 +11153,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" ref="A351:A365" si="17">EDATE(A350,1)</f>
         <v>42461</v>
@@ -11179,7 +11178,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>200</v>
@@ -11201,7 +11200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -11219,7 +11218,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>42491</v>
@@ -11244,7 +11243,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>48</v>
@@ -11266,7 +11265,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>44</v>
@@ -11286,7 +11285,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>48</v>
@@ -11306,7 +11305,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13">
@@ -11324,7 +11323,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A354,1)</f>
         <v>42522</v>
@@ -11345,7 +11344,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -11366,7 +11365,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -11391,7 +11390,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13">
@@ -11409,7 +11408,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>42614</v>
@@ -11430,7 +11429,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="17"/>
         <v>42644</v>
@@ -11451,7 +11450,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" si="17"/>
         <v>42675</v>
@@ -11474,7 +11473,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>139</v>
@@ -11496,7 +11495,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13">
@@ -11514,7 +11513,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>42705</v>
@@ -11535,7 +11534,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="47" t="s">
         <v>208</v>
       </c>
@@ -11553,7 +11552,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>42736</v>
       </c>
@@ -11577,7 +11576,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>48</v>
@@ -11599,7 +11598,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -11617,7 +11616,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f>EDATE(A370,1)</f>
         <v>42767</v>
@@ -11642,7 +11641,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>48</v>
@@ -11664,7 +11663,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13">
@@ -11682,7 +11681,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A373,1)</f>
         <v>42795</v>
@@ -11707,7 +11706,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>48</v>
@@ -11729,7 +11728,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>44</v>
@@ -11749,7 +11748,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>62</v>
@@ -11771,7 +11770,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>44</v>
@@ -11791,7 +11790,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13">
@@ -11809,7 +11808,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f>EDATE(A376,1)</f>
         <v>42826</v>
@@ -11830,7 +11829,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" ref="A383:A390" si="18">EDATE(A382,1)</f>
         <v>42856</v>
@@ -11851,7 +11850,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="18"/>
         <v>42887</v>
@@ -11872,7 +11871,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="18"/>
         <v>42917</v>
@@ -11895,7 +11894,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13">
@@ -11913,7 +11912,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f>EDATE(A385,1)</f>
         <v>42948</v>
@@ -11938,7 +11937,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -11956,7 +11955,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A387,1)</f>
         <v>42979</v>
@@ -11977,7 +11976,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -12000,7 +11999,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13">
@@ -12018,7 +12017,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f>EDATE(A390,1)</f>
         <v>43040</v>
@@ -12043,7 +12042,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13">
@@ -12061,7 +12060,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>43070</v>
@@ -12082,7 +12081,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="47" t="s">
         <v>220</v>
       </c>
@@ -12100,7 +12099,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43101</v>
       </c>
@@ -12124,7 +12123,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -12146,7 +12145,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>48</v>
@@ -12168,7 +12167,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13">
@@ -12186,7 +12185,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A396,1)</f>
         <v>43132</v>
@@ -12207,7 +12206,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" ref="A401:A415" si="19">EDATE(A400,1)</f>
         <v>43160</v>
@@ -12232,7 +12231,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>44</v>
@@ -12252,7 +12251,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13">
@@ -12270,7 +12269,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A401,1)</f>
         <v>43191</v>
@@ -12291,7 +12290,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="19"/>
         <v>43221</v>
@@ -12312,7 +12311,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="19"/>
         <v>43252</v>
@@ -12337,7 +12336,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13">
@@ -12355,7 +12354,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A406,1)</f>
         <v>43282</v>
@@ -12380,7 +12379,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -12398,7 +12397,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>43313</v>
@@ -12423,7 +12422,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>48</v>
@@ -12445,7 +12444,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -12467,7 +12466,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13">
@@ -12485,7 +12484,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A410,1)</f>
         <v>43344</v>
@@ -12506,7 +12505,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" si="19"/>
         <v>43374</v>
@@ -12531,7 +12530,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>44</v>
@@ -12551,7 +12550,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -12573,7 +12572,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13">
@@ -12591,7 +12590,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A415,1)</f>
         <v>43405</v>
@@ -12614,7 +12613,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13">
@@ -12632,7 +12631,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>43435</v>
@@ -12655,7 +12654,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13">
@@ -12673,7 +12672,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="47" t="s">
         <v>232</v>
       </c>
@@ -12691,7 +12690,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43466</v>
       </c>
@@ -12715,7 +12714,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13">
@@ -12733,7 +12732,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EDATE(A424,1)</f>
         <v>43497</v>
@@ -12756,7 +12755,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>48</v>
@@ -12778,7 +12777,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
@@ -12796,7 +12795,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A426,1)</f>
         <v>43525</v>
@@ -12819,7 +12818,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>48</v>
@@ -12841,7 +12840,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>48</v>
@@ -12863,7 +12862,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13">
@@ -12881,7 +12880,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A429,1)</f>
         <v>43556</v>
@@ -12906,7 +12905,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -12928,7 +12927,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>48</v>
@@ -12950,7 +12949,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>62</v>
@@ -12972,7 +12971,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13">
@@ -12990,7 +12989,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f>EDATE(A433,1)</f>
         <v>43586</v>
@@ -13011,7 +13010,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f t="shared" ref="A439:A451" si="20">EDATE(A438,1)</f>
         <v>43617</v>
@@ -13036,7 +13035,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -13058,7 +13057,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -13076,7 +13075,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A439,1)</f>
         <v>43647</v>
@@ -13101,7 +13100,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>48</v>
@@ -13123,7 +13122,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>48</v>
@@ -13145,7 +13144,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13">
@@ -13163,7 +13162,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f>EDATE(A442,1)</f>
         <v>43678</v>
@@ -13184,7 +13183,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="20"/>
         <v>43709</v>
@@ -13209,7 +13208,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>48</v>
@@ -13231,7 +13230,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13">
@@ -13249,7 +13248,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43739</v>
@@ -13270,7 +13269,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="20"/>
         <v>43770</v>
@@ -13293,7 +13292,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>139</v>
@@ -13315,7 +13314,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13">
@@ -13333,7 +13332,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>43800</v>
@@ -13358,7 +13357,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13">
@@ -13376,7 +13375,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="47" t="s">
         <v>249</v>
       </c>
@@ -13394,7 +13393,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43831</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>251</v>
@@ -13438,7 +13437,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>48</v>
@@ -13460,7 +13459,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13">
@@ -13478,7 +13477,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <f>EDATE(A457,1)</f>
         <v>43862</v>
@@ -13499,7 +13498,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f t="shared" ref="A462:A471" si="21">EDATE(A461,1)</f>
         <v>43891</v>
@@ -13520,7 +13519,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" si="21"/>
         <v>43922</v>
@@ -13541,7 +13540,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="21"/>
         <v>43952</v>
@@ -13562,7 +13561,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f t="shared" si="21"/>
         <v>43983</v>
@@ -13587,7 +13586,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13">
@@ -13605,7 +13604,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f>EDATE(A465,1)</f>
         <v>44013</v>
@@ -13626,7 +13625,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f t="shared" si="21"/>
         <v>44044</v>
@@ -13647,7 +13646,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="21"/>
         <v>44075</v>
@@ -13668,7 +13667,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="21"/>
         <v>44105</v>
@@ -13689,7 +13688,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f t="shared" si="21"/>
         <v>44136</v>
@@ -13712,7 +13711,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -13734,7 +13733,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13">
@@ -13752,7 +13751,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f>EDATE(A471,1)</f>
         <v>44166</v>
@@ -13777,7 +13776,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13">
@@ -13795,7 +13794,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="47" t="s">
         <v>259</v>
       </c>
@@ -13813,7 +13812,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44197</v>
       </c>
@@ -13837,7 +13836,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13">
@@ -13855,7 +13854,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>44228</v>
@@ -13876,7 +13875,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f t="shared" ref="A480:A490" si="22">EDATE(A479,1)</f>
         <v>44256</v>
@@ -13897,7 +13896,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f t="shared" si="22"/>
         <v>44287</v>
@@ -13918,7 +13917,7 @@
       <c r="J481" s="12"/>
       <c r="K481" s="15"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f t="shared" si="22"/>
         <v>44317</v>
@@ -13939,7 +13938,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="22"/>
         <v>44348</v>
@@ -13960,7 +13959,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f t="shared" si="22"/>
         <v>44378</v>
@@ -13981,7 +13980,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f t="shared" si="22"/>
         <v>44409</v>
@@ -14002,7 +14001,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f t="shared" si="22"/>
         <v>44440</v>
@@ -14023,7 +14022,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f t="shared" si="22"/>
         <v>44470</v>
@@ -14046,7 +14045,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13">
@@ -14064,7 +14063,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f>EDATE(A487,1)</f>
         <v>44501</v>
@@ -14085,7 +14084,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="22"/>
         <v>44531</v>
@@ -14110,7 +14109,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>144</v>
@@ -14130,7 +14129,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13">
@@ -14148,7 +14147,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="47" t="s">
         <v>263</v>
       </c>
@@ -14166,7 +14165,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44562</v>
       </c>
@@ -14186,7 +14185,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f>EDATE(A494,1)</f>
         <v>44593</v>
@@ -14207,7 +14206,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A501" si="23">EDATE(A495,1)</f>
         <v>44621</v>
@@ -14232,7 +14231,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13">
@@ -14250,7 +14249,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A496,1)</f>
         <v>44652</v>
@@ -14275,7 +14274,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -14293,7 +14292,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>44682</v>
@@ -14314,7 +14313,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="23"/>
         <v>44713</v>
@@ -14339,7 +14338,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -14357,7 +14356,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A501,1)</f>
         <v>44743</v>
@@ -14382,7 +14381,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13">
@@ -14400,7 +14399,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A503,1)</f>
         <v>44774</v>
@@ -14425,7 +14424,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>62</v>
@@ -14447,7 +14446,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13">
@@ -14465,7 +14464,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44805</v>
       </c>
@@ -14491,7 +14490,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>272</v>
@@ -14513,7 +14512,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44835</v>
       </c>
@@ -14537,7 +14536,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44866</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>268</v>
@@ -14585,7 +14584,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>271</v>
@@ -14605,7 +14604,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44896</v>
       </c>
@@ -14631,7 +14630,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>271</v>
@@ -14651,7 +14650,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>268</v>
@@ -14673,7 +14672,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="47" t="s">
         <v>267</v>
       </c>
@@ -14691,7 +14690,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44927</v>
       </c>
@@ -14717,7 +14716,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>268</v>
@@ -14739,7 +14738,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44958</v>
       </c>
@@ -14765,7 +14764,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>276</v>
@@ -14787,7 +14786,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44986</v>
       </c>
@@ -14813,20 +14812,22 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>45017</v>
       </c>
       <c r="B523" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C523" s="13"/>
+      <c r="C523" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D523" s="39"/>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G523" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H523" s="39">
         <v>1</v>
@@ -14837,29 +14838,33 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>45047</v>
       </c>
       <c r="B524" s="20"/>
-      <c r="C524" s="13"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45078</v>
       </c>
-      <c r="B525" s="20"/>
+      <c r="B525" s="20" t="s">
+        <v>268</v>
+      </c>
       <c r="C525" s="13"/>
       <c r="D525" s="39"/>
       <c r="E525" s="9"/>
@@ -14868,12 +14873,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H525" s="39"/>
+      <c r="H525" s="39">
+        <v>1</v>
+      </c>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
-    </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K525" s="48">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45108</v>
       </c>
@@ -14891,7 +14900,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45139</v>
       </c>
@@ -14909,7 +14918,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45170</v>
       </c>
@@ -14927,7 +14936,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45200</v>
       </c>
@@ -14945,7 +14954,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45231</v>
       </c>
@@ -14963,7 +14972,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45261</v>
       </c>
@@ -14981,7 +14990,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>45292</v>
       </c>
@@ -14999,7 +15008,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>45323</v>
       </c>
@@ -15017,7 +15026,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45352</v>
       </c>
@@ -15035,7 +15044,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>45383</v>
       </c>
@@ -15053,7 +15062,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>45413</v>
       </c>
@@ -15071,7 +15080,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45444</v>
       </c>
@@ -15089,7 +15098,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>45474</v>
       </c>
@@ -15107,7 +15116,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>45505</v>
       </c>
@@ -15125,7 +15134,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>45536</v>
       </c>
@@ -15143,7 +15152,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>45566</v>
       </c>
@@ -15161,7 +15170,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45597</v>
       </c>
@@ -15179,7 +15188,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45627</v>
       </c>
@@ -15197,7 +15206,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45658</v>
       </c>
@@ -15215,7 +15224,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45689</v>
       </c>
@@ -15233,7 +15242,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45717</v>
       </c>
@@ -15251,7 +15260,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45748</v>
       </c>
@@ -15269,7 +15278,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45778</v>
       </c>
@@ -15287,7 +15296,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45809</v>
       </c>
@@ -15305,7 +15314,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45839</v>
       </c>
@@ -15323,7 +15332,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45870</v>
       </c>
@@ -15341,7 +15350,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45901</v>
       </c>
@@ -15359,7 +15368,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45931</v>
       </c>
@@ -15377,7 +15386,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45962</v>
       </c>
@@ -15395,7 +15404,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>45992</v>
       </c>
@@ -15413,7 +15422,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>46023</v>
       </c>
@@ -15431,7 +15440,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>46054</v>
       </c>
@@ -15449,7 +15458,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>46082</v>
       </c>
@@ -15467,7 +15476,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>46113</v>
       </c>
@@ -15485,7 +15494,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>46143</v>
       </c>
@@ -15503,7 +15512,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>46174</v>
       </c>
@@ -15521,7 +15530,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>46204</v>
       </c>
@@ -15539,7 +15548,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>46235</v>
       </c>
@@ -15557,7 +15566,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>46266</v>
       </c>
@@ -15575,7 +15584,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>46296</v>
       </c>
@@ -15593,7 +15602,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>46327</v>
       </c>
@@ -15611,7 +15620,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>46357</v>
       </c>
@@ -15629,7 +15638,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>46388</v>
       </c>
@@ -15647,7 +15656,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>46419</v>
       </c>
@@ -15665,7 +15674,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>46447</v>
       </c>
@@ -15683,7 +15692,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>46478</v>
       </c>
@@ -15701,7 +15710,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>46508</v>
       </c>
@@ -15719,7 +15728,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>46539</v>
       </c>
@@ -15737,7 +15746,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>46569</v>
       </c>
@@ -15755,7 +15764,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>46600</v>
       </c>
@@ -15773,7 +15782,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>46631</v>
       </c>
@@ -15791,7 +15800,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>46661</v>
       </c>
@@ -15809,7 +15818,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>46692</v>
       </c>
@@ -15827,7 +15836,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>46722</v>
       </c>
@@ -15845,7 +15854,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>46753</v>
       </c>
@@ -15863,7 +15872,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>46784</v>
       </c>
@@ -15881,7 +15890,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>46813</v>
       </c>
@@ -15899,7 +15908,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>46844</v>
       </c>
@@ -15917,7 +15926,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>46874</v>
       </c>
@@ -15935,7 +15944,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>46905</v>
       </c>
@@ -15953,7 +15962,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>46935</v>
       </c>
@@ -15971,7 +15980,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>46966</v>
       </c>
@@ -15989,7 +15998,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>46997</v>
       </c>
@@ -16007,7 +16016,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>47027</v>
       </c>
@@ -16025,7 +16034,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>47058</v>
       </c>
@@ -16043,7 +16052,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>47088</v>
       </c>
@@ -16061,7 +16070,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>47119</v>
       </c>
@@ -16079,7 +16088,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>47150</v>
       </c>
@@ -16097,7 +16106,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>47178</v>
       </c>
@@ -16115,7 +16124,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>47209</v>
       </c>
@@ -16133,7 +16142,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>47239</v>
       </c>
@@ -16151,7 +16160,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>47270</v>
       </c>
@@ -16169,7 +16178,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>47300</v>
       </c>
@@ -16187,7 +16196,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>47331</v>
       </c>
@@ -16205,7 +16214,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>47362</v>
       </c>
@@ -16223,7 +16232,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>47392</v>
       </c>
@@ -16241,7 +16250,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>47423</v>
       </c>
@@ -16259,7 +16268,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -16275,7 +16284,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -16291,7 +16300,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -16307,7 +16316,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16323,7 +16332,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16339,7 +16348,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16355,7 +16364,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16371,7 +16380,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16387,7 +16396,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16403,7 +16412,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16419,7 +16428,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16435,7 +16444,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16451,7 +16460,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16467,7 +16476,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16483,7 +16492,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16499,7 +16508,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16515,7 +16524,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16531,7 +16540,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16547,7 +16556,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16563,7 +16572,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16579,7 +16588,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16595,7 +16604,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16611,7 +16620,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16627,7 +16636,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16643,7 +16652,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16659,7 +16668,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16675,7 +16684,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16691,7 +16700,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16707,7 +16716,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16723,7 +16732,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16739,7 +16748,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16755,7 +16764,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16771,7 +16780,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16787,7 +16796,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16803,7 +16812,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16819,7 +16828,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16835,7 +16844,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16851,7 +16860,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16867,7 +16876,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16883,7 +16892,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16899,7 +16908,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16915,7 +16924,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16931,7 +16940,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16947,7 +16956,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16963,7 +16972,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16979,7 +16988,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16995,7 +17004,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17011,7 +17020,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17027,7 +17036,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17043,7 +17052,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17059,7 +17068,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17075,7 +17084,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17091,7 +17100,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17107,7 +17116,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17123,7 +17132,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17139,7 +17148,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17155,7 +17164,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17171,7 +17180,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17187,7 +17196,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17203,7 +17212,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17219,7 +17228,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17235,7 +17244,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17251,7 +17260,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17267,7 +17276,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17283,7 +17292,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17299,7 +17308,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17315,7 +17324,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17331,7 +17340,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17347,7 +17356,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17363,7 +17372,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17379,7 +17388,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17395,7 +17404,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17411,7 +17420,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17427,7 +17436,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17443,7 +17452,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17459,7 +17468,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17475,7 +17484,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17491,7 +17500,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17507,7 +17516,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17523,7 +17532,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17539,7 +17548,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17555,7 +17564,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17571,7 +17580,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17587,7 +17596,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17603,7 +17612,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17619,7 +17628,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17635,7 +17644,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17651,7 +17660,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17667,7 +17676,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17683,7 +17692,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17699,7 +17708,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17715,7 +17724,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17731,7 +17740,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17747,7 +17756,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17763,7 +17772,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17779,7 +17788,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17795,7 +17804,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17811,7 +17820,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17827,7 +17836,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="53"/>
       <c r="B701" s="15"/>
       <c r="C701" s="41"/>
@@ -17858,10 +17867,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17884,7 +17893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17892,21 +17901,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -17919,7 +17928,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17948,7 +17957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17974,17 +17983,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18005,7 +18014,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18032,7 +18041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18058,7 +18067,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18084,7 +18093,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18110,7 +18119,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18136,7 +18145,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18162,7 +18171,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18188,7 +18197,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18214,7 +18223,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18234,7 +18243,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18254,7 +18263,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18274,7 +18283,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18295,7 +18304,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18316,7 +18325,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18337,7 +18346,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18358,7 +18367,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18379,7 +18388,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18400,7 +18409,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18421,7 +18430,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18442,7 +18451,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18463,7 +18472,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18484,7 +18493,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18505,7 +18514,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18526,7 +18535,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18547,7 +18556,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18568,7 +18577,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18589,7 +18598,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18610,7 +18619,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18631,7 +18640,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18652,7 +18661,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18673,7 +18682,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18694,7 +18703,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18703,7 +18712,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18712,7 +18721,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18721,7 +18730,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18730,7 +18739,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18739,7 +18748,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18748,7 +18757,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18757,7 +18766,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18766,7 +18775,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18775,7 +18784,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18784,7 +18793,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18793,7 +18802,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18802,7 +18811,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18811,7 +18820,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18820,7 +18829,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18829,7 +18838,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18838,7 +18847,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18847,7 +18856,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18856,7 +18865,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18865,7 +18874,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18874,7 +18883,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18883,7 +18892,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18892,7 +18901,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18901,7 +18910,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18910,7 +18919,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18919,7 +18928,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18928,7 +18937,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18937,7 +18946,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18946,7 +18955,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18955,7 +18964,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PAITON, MARY ANN.xlsx
+++ b/REGULAR/PAITON, MARY ANN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0542BD-6A83-44C9-8671-8F3951B28B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="280">
   <si>
     <t>PERIOD</t>
   </si>
@@ -868,12 +869,18 @@
   </si>
   <si>
     <t>2/27,28, 3/1</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/29,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1765,7 +1772,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1815,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1879,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1939,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +2005,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2068,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2166,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2225,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2290,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2333,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2408,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2594,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2660,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2718,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2784,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2840,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2908,7 +2915,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2958,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3024,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3080,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3178,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3234,7 +3241,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3290,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3300,25 +3307,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K701" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K702" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3330,13 +3337,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3345,14 +3352,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3656,7 +3663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3666,7 +3673,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3674,34 +3681,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K701"/>
+  <dimension ref="A2:K702"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3885" topLeftCell="A516"/>
+      <pane ySplit="3888" topLeftCell="A517" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="K526" sqref="K526"/>
+      <selection pane="bottomLeft" activeCell="B527" sqref="B527"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3722,7 +3729,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3740,7 +3747,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3762,7 +3769,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3770,7 +3777,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3783,7 +3790,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3800,7 +3807,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3859,7 +3866,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3881,7 +3888,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36220</v>
       </c>
@@ -3901,7 +3908,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36251</v>
@@ -3922,7 +3929,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A18" si="0">EDATE(A12,1)</f>
         <v>36281</v>
@@ -3943,7 +3950,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -3964,7 +3971,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -3985,7 +3992,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -4006,7 +4013,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -4027,7 +4034,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -4048,7 +4055,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>36465</v>
@@ -4071,7 +4078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -4089,7 +4096,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f>EDATE(A19,1)</f>
         <v>36495</v>
@@ -4114,7 +4121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -4136,7 +4143,7 @@
         <v>36172</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4158,7 +4165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -4176,7 +4183,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>51</v>
       </c>
@@ -4194,7 +4201,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36526</v>
       </c>
@@ -4214,7 +4221,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f>EDATE(A26,1)</f>
         <v>36557</v>
@@ -4235,7 +4242,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" ref="A28:A39" si="1">EDATE(A27,1)</f>
         <v>36586</v>
@@ -4260,7 +4267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>44</v>
@@ -4280,7 +4287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -4298,7 +4305,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A28,1)</f>
         <v>36617</v>
@@ -4321,7 +4328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -4339,7 +4346,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36647</v>
@@ -4360,7 +4367,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -4381,7 +4388,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -4402,7 +4409,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -4423,7 +4430,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>36770</v>
@@ -4444,7 +4451,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -4465,7 +4472,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -4490,7 +4497,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>44</v>
@@ -4510,7 +4517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4528,7 +4535,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36861</v>
@@ -4553,7 +4560,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -4571,7 +4578,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>60</v>
       </c>
@@ -4589,7 +4596,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36892</v>
       </c>
@@ -4609,7 +4616,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>36923</v>
@@ -4630,7 +4637,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" ref="A47:A58" si="2">EDATE(A46,1)</f>
         <v>36951</v>
@@ -4655,7 +4662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4673,7 +4680,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36982</v>
@@ -4694,7 +4701,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -4715,7 +4722,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -4736,7 +4743,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -4757,7 +4764,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -4778,7 +4785,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -4803,7 +4810,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>44</v>
@@ -4823,7 +4830,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4841,7 +4848,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A54,1)</f>
         <v>37165</v>
@@ -4862,7 +4869,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>37196</v>
@@ -4887,7 +4894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>46</v>
@@ -4909,7 +4916,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4927,7 +4934,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A58,1)</f>
         <v>37226</v>
@@ -4948,7 +4955,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>67</v>
       </c>
@@ -4966,7 +4973,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37257</v>
       </c>
@@ -4986,7 +4993,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>37288</v>
@@ -5007,7 +5014,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A75" si="3">EDATE(A64,1)</f>
         <v>37316</v>
@@ -5032,7 +5039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -5050,7 +5057,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>37347</v>
@@ -5071,7 +5078,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>37377</v>
@@ -5094,7 +5101,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -5112,7 +5119,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>37408</v>
@@ -5133,7 +5140,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A70,1)</f>
         <v>37438</v>
@@ -5158,7 +5165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -5176,7 +5183,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A71,1)</f>
         <v>37469</v>
@@ -5197,7 +5204,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -5218,7 +5225,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -5243,7 +5250,7 @@
         <v>37325</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>44</v>
@@ -5263,7 +5270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -5281,7 +5288,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>37561</v>
@@ -5306,7 +5313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>58</v>
@@ -5328,7 +5335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -5346,7 +5353,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A78,1)</f>
         <v>37591</v>
@@ -5367,7 +5374,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="47" t="s">
         <v>74</v>
       </c>
@@ -5385,7 +5392,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37622</v>
       </c>
@@ -5409,7 +5416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>44</v>
@@ -5429,7 +5436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>55</v>
@@ -5451,7 +5458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>48</v>
@@ -5473,7 +5480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5491,7 +5498,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A83,1)</f>
         <v>37653</v>
@@ -5512,7 +5519,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" ref="A89:A106" si="4">EDATE(A88,1)</f>
         <v>37681</v>
@@ -5537,7 +5544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>48</v>
@@ -5559,7 +5566,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5577,7 +5584,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A89,1)</f>
         <v>37712</v>
@@ -5602,7 +5609,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>44</v>
@@ -5622,7 +5629,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5640,7 +5647,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>37742</v>
@@ -5665,7 +5672,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5683,7 +5690,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>37773</v>
@@ -5708,7 +5715,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>48</v>
@@ -5730,7 +5737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -5748,7 +5755,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A97,1)</f>
         <v>37803</v>
@@ -5773,7 +5780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5791,7 +5798,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>37834</v>
@@ -5814,7 +5821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>37865</v>
@@ -5835,7 +5842,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -5856,7 +5863,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="4"/>
         <v>37926</v>
@@ -5877,7 +5884,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -5902,7 +5909,7 @@
         <v>37633</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -5924,7 +5931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5942,7 +5949,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
         <v>91</v>
       </c>
@@ -5960,7 +5967,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37987</v>
       </c>
@@ -5982,7 +5989,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -6004,7 +6011,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -6022,7 +6029,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A110,1)</f>
         <v>38018</v>
@@ -6043,7 +6050,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" ref="A114:A122" si="5">EDATE(A113,1)</f>
         <v>38047</v>
@@ -6068,7 +6075,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -6086,7 +6093,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>38078</v>
@@ -6107,7 +6114,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -6132,7 +6139,7 @@
         <v>37992</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6150,7 +6157,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>38139</v>
@@ -6171,7 +6178,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -6192,7 +6199,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="5"/>
         <v>38200</v>
@@ -6213,7 +6220,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="5"/>
         <v>38231</v>
@@ -6238,7 +6245,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6256,7 +6263,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>38261</v>
@@ -6279,7 +6286,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6297,7 +6304,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>38292</v>
@@ -6318,7 +6325,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A126,1)</f>
         <v>38322</v>
@@ -6341,7 +6348,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6359,7 +6366,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="47" t="s">
         <v>98</v>
       </c>
@@ -6377,7 +6384,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38353</v>
       </c>
@@ -6397,7 +6404,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A130,1)</f>
         <v>38384</v>
@@ -6420,7 +6427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>48</v>
@@ -6442,7 +6449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -6460,7 +6467,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A131,1)</f>
         <v>38412</v>
@@ -6485,7 +6492,7 @@
         <v>38386</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -6503,7 +6510,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>38443</v>
@@ -6524,7 +6531,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A142" si="6">EDATE(A136,1)</f>
         <v>38473</v>
@@ -6545,7 +6552,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="6"/>
         <v>38504</v>
@@ -6570,7 +6577,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13">
@@ -6588,7 +6595,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f>EDATE(A138,1)</f>
         <v>38534</v>
@@ -6609,7 +6616,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="6"/>
         <v>38565</v>
@@ -6630,7 +6637,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -6655,7 +6662,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>103</v>
@@ -6677,7 +6684,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>44</v>
@@ -6697,7 +6704,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6715,7 +6722,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A142,1)</f>
         <v>38626</v>
@@ -6736,7 +6743,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A146,1)</f>
         <v>38657</v>
@@ -6761,7 +6768,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>106</v>
@@ -6783,7 +6790,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
@@ -6801,7 +6808,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A147,1)</f>
         <v>38687</v>
@@ -6824,7 +6831,7 @@
         <v>38596</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -6842,7 +6849,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="47" t="s">
         <v>109</v>
       </c>
@@ -6860,7 +6867,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38718</v>
       </c>
@@ -6880,7 +6887,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A153,1)</f>
         <v>38749</v>
@@ -6901,7 +6908,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" ref="A155:A167" si="7">EDATE(A154,1)</f>
         <v>38777</v>
@@ -6926,7 +6933,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>48</v>
@@ -6948,7 +6955,7 @@
         <v>38781</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -6966,7 +6973,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38808</v>
@@ -6987,7 +6994,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -7008,7 +7015,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="7"/>
         <v>38869</v>
@@ -7029,7 +7036,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -7050,7 +7057,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -7073,7 +7080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>85</v>
@@ -7095,7 +7102,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13">
@@ -7113,7 +7120,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>38961</v>
@@ -7134,7 +7141,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -7155,7 +7162,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -7180,7 +7187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>115</v>
@@ -7200,7 +7207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -7218,7 +7225,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A167,1)</f>
         <v>39052</v>
@@ -7239,7 +7246,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="47" t="s">
         <v>117</v>
       </c>
@@ -7257,7 +7264,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>39083</v>
       </c>
@@ -7279,7 +7286,7 @@
         <v>39326</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -7297,7 +7304,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>39114</v>
@@ -7320,7 +7327,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -7338,7 +7345,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>39142</v>
@@ -7363,7 +7370,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13">
@@ -7381,7 +7388,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>39173</v>
@@ -7406,7 +7413,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" ref="A179:A184" si="8">EDATE(A178,1)</f>
         <v>39203</v>
@@ -7433,7 +7440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="8"/>
         <v>39234</v>
@@ -7454,7 +7461,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -7475,7 +7482,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -7500,7 +7507,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="8"/>
         <v>39326</v>
@@ -7525,7 +7532,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -7546,7 +7553,7 @@
       <c r="J184" s="12"/>
       <c r="K184" s="15"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>44</v>
@@ -7566,7 +7573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>39387</v>
@@ -7593,7 +7600,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>44</v>
@@ -7613,7 +7620,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>39417</v>
@@ -7634,7 +7641,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="47" t="s">
         <v>127</v>
       </c>
@@ -7652,7 +7659,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>39448</v>
       </c>
@@ -7676,7 +7683,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f>EDATE(A190,1)</f>
         <v>39479</v>
@@ -7701,7 +7708,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" ref="A192:A202" si="9">EDATE(A191,1)</f>
         <v>39508</v>
@@ -7726,7 +7733,7 @@
       <c r="J192" s="12"/>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="9"/>
         <v>39539</v>
@@ -7751,7 +7758,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="9"/>
         <v>39569</v>
@@ -7776,7 +7783,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="9"/>
         <v>39600</v>
@@ -7801,7 +7808,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="9"/>
         <v>39630</v>
@@ -7826,7 +7833,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="9"/>
         <v>39661</v>
@@ -7851,7 +7858,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="9"/>
         <v>39692</v>
@@ -7874,7 +7881,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>44</v>
@@ -7894,7 +7901,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7912,7 +7919,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39722</v>
@@ -7937,7 +7944,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f t="shared" si="9"/>
         <v>39753</v>
@@ -7960,7 +7967,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>139</v>
@@ -7982,7 +7989,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>141</v>
@@ -8004,7 +8011,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>39783</v>
@@ -8029,7 +8036,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="47" t="s">
         <v>143</v>
       </c>
@@ -8047,7 +8054,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>39814</v>
       </c>
@@ -8069,7 +8076,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -8087,7 +8094,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>39845</v>
@@ -8108,7 +8115,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" ref="A210:A221" si="10">EDATE(A209,1)</f>
         <v>39873</v>
@@ -8131,7 +8138,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -8149,7 +8156,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39904</v>
@@ -8170,7 +8177,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="10"/>
         <v>39934</v>
@@ -8191,7 +8198,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="10"/>
         <v>39965</v>
@@ -8212,7 +8219,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="10"/>
         <v>39995</v>
@@ -8233,7 +8240,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f t="shared" si="10"/>
         <v>40026</v>
@@ -8254,7 +8261,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f t="shared" si="10"/>
         <v>40057</v>
@@ -8275,7 +8282,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" si="10"/>
         <v>40087</v>
@@ -8300,7 +8307,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -8318,7 +8325,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>40118</v>
@@ -8339,7 +8346,7 @@
       <c r="J220" s="12"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="10"/>
         <v>40148</v>
@@ -8364,7 +8371,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>49</v>
@@ -8386,7 +8393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -8404,7 +8411,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="47" t="s">
         <v>148</v>
       </c>
@@ -8422,7 +8429,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>40179</v>
       </c>
@@ -8442,7 +8449,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A225,1)</f>
         <v>40210</v>
@@ -8465,7 +8472,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -8483,7 +8490,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>40238</v>
@@ -8504,7 +8511,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f t="shared" ref="A229:A233" si="11">EDATE(A228,1)</f>
         <v>40269</v>
@@ -8525,7 +8532,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="11"/>
         <v>40299</v>
@@ -8550,7 +8557,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="11"/>
         <v>40330</v>
@@ -8575,7 +8582,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="11"/>
         <v>40360</v>
@@ -8600,7 +8607,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="11"/>
         <v>40391</v>
@@ -8625,7 +8632,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8643,7 +8650,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>40422</v>
@@ -8668,7 +8675,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>122</v>
@@ -8690,7 +8697,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>40452</v>
@@ -8713,7 +8720,7 @@
         <v>40401</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13">
@@ -8731,7 +8738,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>40483</v>
@@ -8756,7 +8763,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13">
@@ -8774,7 +8781,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>40513</v>
@@ -8795,7 +8802,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="47" t="s">
         <v>156</v>
       </c>
@@ -8813,7 +8820,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>40544</v>
       </c>
@@ -8835,7 +8842,7 @@
         <v>40848</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8853,7 +8860,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40575</v>
@@ -8874,7 +8881,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A255" si="12">EDATE(A245,1)</f>
         <v>40603</v>
@@ -8895,7 +8902,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="12"/>
         <v>40634</v>
@@ -8916,7 +8923,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="12"/>
         <v>40664</v>
@@ -8941,7 +8948,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>48</v>
@@ -8963,7 +8970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13">
@@ -8981,7 +8988,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A248,1)</f>
         <v>40695</v>
@@ -9002,7 +9009,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="12"/>
         <v>40725</v>
@@ -9023,7 +9030,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="12"/>
         <v>40756</v>
@@ -9044,7 +9051,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="12"/>
         <v>40787</v>
@@ -9065,7 +9072,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="12"/>
         <v>40817</v>
@@ -9088,7 +9095,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>152</v>
@@ -9110,7 +9117,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>40848</v>
@@ -9135,7 +9142,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>44</v>
@@ -9155,7 +9162,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9173,7 +9180,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>40878</v>
@@ -9195,7 +9202,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>161</v>
@@ -9217,7 +9224,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="47" t="s">
         <v>162</v>
       </c>
@@ -9235,7 +9242,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>40909</v>
       </c>
@@ -9257,7 +9264,7 @@
         <v>41153</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>48</v>
@@ -9279,7 +9286,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13">
@@ -9297,7 +9304,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A263,1)</f>
         <v>40940</v>
@@ -9322,7 +9329,7 @@
         <v>40941</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -9340,7 +9347,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="48"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40969</v>
@@ -9365,7 +9372,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>44</v>
@@ -9385,7 +9392,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13">
@@ -9403,7 +9410,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>41000</v>
@@ -9428,7 +9435,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A278" si="13">EDATE(A271,1)</f>
         <v>41030</v>
@@ -9453,7 +9460,7 @@
         <v>41095</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -9471,7 +9478,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>41061</v>
@@ -9496,7 +9503,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="13"/>
         <v>41091</v>
@@ -9521,7 +9528,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -9539,7 +9546,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>41122</v>
@@ -9560,7 +9567,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="13"/>
         <v>41153</v>
@@ -9585,7 +9592,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9603,7 +9610,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>41183</v>
@@ -9626,7 +9633,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13">
@@ -9644,7 +9651,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>41214</v>
@@ -9669,7 +9676,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9687,7 +9694,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>41244</v>
@@ -9708,7 +9715,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="47" t="s">
         <v>170</v>
       </c>
@@ -9726,7 +9733,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>41275</v>
       </c>
@@ -9750,7 +9757,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>171</v>
@@ -9770,7 +9777,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>41306</v>
@@ -9795,7 +9802,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" ref="A289:A295" si="14">EDATE(A288,1)</f>
         <v>41334</v>
@@ -9820,7 +9827,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="14"/>
         <v>41365</v>
@@ -9845,7 +9852,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="14"/>
         <v>41395</v>
@@ -9866,7 +9873,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="14"/>
         <v>41426</v>
@@ -9887,7 +9894,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="14"/>
         <v>41456</v>
@@ -9908,7 +9915,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="14"/>
         <v>41487</v>
@@ -9929,7 +9936,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f t="shared" si="14"/>
         <v>41518</v>
@@ -9954,7 +9961,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13">
@@ -9972,7 +9979,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A295,1)</f>
         <v>41548</v>
@@ -9995,7 +10002,7 @@
         <v>41405</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -10017,7 +10024,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -10035,7 +10042,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A297,1)</f>
         <v>41579</v>
@@ -10060,7 +10067,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13">
@@ -10078,7 +10085,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>41609</v>
@@ -10099,7 +10106,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="47" t="s">
         <v>176</v>
       </c>
@@ -10117,7 +10124,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>41640</v>
       </c>
@@ -10139,7 +10146,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13">
@@ -10157,7 +10164,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>41671</v>
@@ -10178,7 +10185,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A319" si="15">EDATE(A306,1)</f>
         <v>41699</v>
@@ -10203,7 +10210,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>48</v>
@@ -10225,7 +10232,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -10243,7 +10250,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A307,1)</f>
         <v>41730</v>
@@ -10268,7 +10275,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13">
@@ -10286,7 +10293,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>41760</v>
@@ -10307,7 +10314,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f t="shared" si="15"/>
         <v>41791</v>
@@ -10332,7 +10339,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -10350,7 +10357,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>41821</v>
@@ -10375,7 +10382,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>152</v>
@@ -10397,7 +10404,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f>EDATE(A315,1)</f>
         <v>41852</v>
@@ -10422,7 +10429,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -10447,7 +10454,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="15"/>
         <v>41913</v>
@@ -10472,7 +10479,7 @@
         <v>41830</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>44</v>
@@ -10492,7 +10499,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>183</v>
@@ -10514,7 +10521,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>41944</v>
@@ -10539,7 +10546,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>185</v>
@@ -10561,7 +10568,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>187</v>
@@ -10583,7 +10590,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>41974</v>
@@ -10608,7 +10615,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="47" t="s">
         <v>189</v>
       </c>
@@ -10626,7 +10633,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>42005</v>
       </c>
@@ -10648,7 +10655,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -10666,7 +10673,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>42036</v>
@@ -10691,7 +10698,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>152</v>
@@ -10713,7 +10720,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>42064</v>
@@ -10736,7 +10743,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13">
@@ -10754,7 +10761,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>42095</v>
@@ -10775,7 +10782,7 @@
       <c r="J333" s="12"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" ref="A334:A345" si="16">EDATE(A333,1)</f>
         <v>42125</v>
@@ -10800,7 +10807,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="16"/>
         <v>42156</v>
@@ -10825,7 +10832,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="16"/>
         <v>42186</v>
@@ -10850,7 +10857,7 @@
         <v>42042</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>193</v>
@@ -10872,7 +10879,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>42217</v>
@@ -10893,7 +10900,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f t="shared" si="16"/>
         <v>42248</v>
@@ -10918,7 +10925,7 @@
         <v>42044</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -10936,7 +10943,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>42278</v>
@@ -10961,7 +10968,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>195</v>
@@ -10983,7 +10990,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13">
@@ -11001,7 +11008,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>42309</v>
@@ -11026,7 +11033,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="16"/>
         <v>42339</v>
@@ -11051,7 +11058,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="47" t="s">
         <v>198</v>
       </c>
@@ -11069,7 +11076,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>42370</v>
       </c>
@@ -11089,7 +11096,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A347,1)</f>
         <v>42401</v>
@@ -11114,7 +11121,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13">
@@ -11132,7 +11139,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f>EDATE(A348,1)</f>
         <v>42430</v>
@@ -11153,7 +11160,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f t="shared" ref="A351:A365" si="17">EDATE(A350,1)</f>
         <v>42461</v>
@@ -11178,7 +11185,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>200</v>
@@ -11200,7 +11207,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -11218,7 +11225,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>42491</v>
@@ -11243,7 +11250,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>48</v>
@@ -11265,7 +11272,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>44</v>
@@ -11285,7 +11292,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>48</v>
@@ -11305,7 +11312,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13">
@@ -11323,7 +11330,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f>EDATE(A354,1)</f>
         <v>42522</v>
@@ -11344,7 +11351,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -11365,7 +11372,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -11390,7 +11397,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13">
@@ -11408,7 +11415,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>42614</v>
@@ -11429,7 +11436,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="17"/>
         <v>42644</v>
@@ -11450,7 +11457,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" si="17"/>
         <v>42675</v>
@@ -11473,7 +11480,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>139</v>
@@ -11495,7 +11502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13">
@@ -11513,7 +11520,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>42705</v>
@@ -11534,7 +11541,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="47" t="s">
         <v>208</v>
       </c>
@@ -11552,7 +11559,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>42736</v>
       </c>
@@ -11576,7 +11583,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>48</v>
@@ -11598,7 +11605,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -11616,7 +11623,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f>EDATE(A370,1)</f>
         <v>42767</v>
@@ -11641,7 +11648,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>48</v>
@@ -11663,7 +11670,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13">
@@ -11681,7 +11688,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f>EDATE(A373,1)</f>
         <v>42795</v>
@@ -11706,7 +11713,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>48</v>
@@ -11728,7 +11735,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>44</v>
@@ -11748,7 +11755,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>62</v>
@@ -11770,7 +11777,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>44</v>
@@ -11790,7 +11797,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13">
@@ -11808,7 +11815,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f>EDATE(A376,1)</f>
         <v>42826</v>
@@ -11829,7 +11836,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" ref="A383:A390" si="18">EDATE(A382,1)</f>
         <v>42856</v>
@@ -11850,7 +11857,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="18"/>
         <v>42887</v>
@@ -11871,7 +11878,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="18"/>
         <v>42917</v>
@@ -11894,7 +11901,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13">
@@ -11912,7 +11919,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f>EDATE(A385,1)</f>
         <v>42948</v>
@@ -11937,7 +11944,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -11955,7 +11962,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A387,1)</f>
         <v>42979</v>
@@ -11976,7 +11983,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -11999,7 +12006,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13">
@@ -12017,7 +12024,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f>EDATE(A390,1)</f>
         <v>43040</v>
@@ -12042,7 +12049,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13">
@@ -12060,7 +12067,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>43070</v>
@@ -12081,7 +12088,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="47" t="s">
         <v>220</v>
       </c>
@@ -12099,7 +12106,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>43101</v>
       </c>
@@ -12123,7 +12130,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -12145,7 +12152,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>48</v>
@@ -12167,7 +12174,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13">
@@ -12185,7 +12192,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A396,1)</f>
         <v>43132</v>
@@ -12206,7 +12213,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f t="shared" ref="A401:A415" si="19">EDATE(A400,1)</f>
         <v>43160</v>
@@ -12231,7 +12238,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>44</v>
@@ -12251,7 +12258,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13">
@@ -12269,7 +12276,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f>EDATE(A401,1)</f>
         <v>43191</v>
@@ -12290,7 +12297,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="19"/>
         <v>43221</v>
@@ -12311,7 +12318,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="19"/>
         <v>43252</v>
@@ -12336,7 +12343,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13">
@@ -12354,7 +12361,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f>EDATE(A406,1)</f>
         <v>43282</v>
@@ -12379,7 +12386,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -12397,7 +12404,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>43313</v>
@@ -12422,7 +12429,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>48</v>
@@ -12444,7 +12451,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -12466,7 +12473,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13">
@@ -12484,7 +12491,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A410,1)</f>
         <v>43344</v>
@@ -12505,7 +12512,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="19"/>
         <v>43374</v>
@@ -12530,7 +12537,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>44</v>
@@ -12550,7 +12557,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -12572,7 +12579,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13">
@@ -12590,7 +12597,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A415,1)</f>
         <v>43405</v>
@@ -12613,7 +12620,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13">
@@ -12631,7 +12638,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>43435</v>
@@ -12654,7 +12661,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13">
@@ -12672,7 +12679,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="47" t="s">
         <v>232</v>
       </c>
@@ -12690,7 +12697,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>43466</v>
       </c>
@@ -12714,7 +12721,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13">
@@ -12732,7 +12739,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f>EDATE(A424,1)</f>
         <v>43497</v>
@@ -12755,7 +12762,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>48</v>
@@ -12777,7 +12784,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
@@ -12795,7 +12802,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f>EDATE(A426,1)</f>
         <v>43525</v>
@@ -12818,7 +12825,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>48</v>
@@ -12840,7 +12847,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>48</v>
@@ -12862,7 +12869,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13">
@@ -12880,7 +12887,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f>EDATE(A429,1)</f>
         <v>43556</v>
@@ -12905,7 +12912,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -12927,7 +12934,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>48</v>
@@ -12949,7 +12956,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>62</v>
@@ -12971,7 +12978,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13">
@@ -12989,7 +12996,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f>EDATE(A433,1)</f>
         <v>43586</v>
@@ -13010,7 +13017,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f t="shared" ref="A439:A451" si="20">EDATE(A438,1)</f>
         <v>43617</v>
@@ -13035,7 +13042,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -13057,7 +13064,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -13075,7 +13082,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A439,1)</f>
         <v>43647</v>
@@ -13100,7 +13107,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>48</v>
@@ -13122,7 +13129,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>48</v>
@@ -13144,7 +13151,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13">
@@ -13162,7 +13169,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f>EDATE(A442,1)</f>
         <v>43678</v>
@@ -13183,7 +13190,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="20"/>
         <v>43709</v>
@@ -13208,7 +13215,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>48</v>
@@ -13230,7 +13237,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13">
@@ -13248,7 +13255,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43739</v>
@@ -13269,7 +13276,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" si="20"/>
         <v>43770</v>
@@ -13292,7 +13299,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>139</v>
@@ -13314,7 +13321,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13">
@@ -13332,7 +13339,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>43800</v>
@@ -13357,7 +13364,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13">
@@ -13375,7 +13382,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="47" t="s">
         <v>249</v>
       </c>
@@ -13393,7 +13400,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43831</v>
       </c>
@@ -13417,7 +13424,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>251</v>
@@ -13437,7 +13444,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>48</v>
@@ -13459,7 +13466,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13">
@@ -13477,7 +13484,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <f>EDATE(A457,1)</f>
         <v>43862</v>
@@ -13498,7 +13505,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f t="shared" ref="A462:A471" si="21">EDATE(A461,1)</f>
         <v>43891</v>
@@ -13519,7 +13526,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="21"/>
         <v>43922</v>
@@ -13540,7 +13547,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="21"/>
         <v>43952</v>
@@ -13561,7 +13568,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f t="shared" si="21"/>
         <v>43983</v>
@@ -13586,7 +13593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13">
@@ -13604,7 +13611,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f>EDATE(A465,1)</f>
         <v>44013</v>
@@ -13625,7 +13632,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f t="shared" si="21"/>
         <v>44044</v>
@@ -13646,7 +13653,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="21"/>
         <v>44075</v>
@@ -13667,7 +13674,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="21"/>
         <v>44105</v>
@@ -13688,7 +13695,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f t="shared" si="21"/>
         <v>44136</v>
@@ -13711,7 +13718,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -13733,7 +13740,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13">
@@ -13751,7 +13758,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f>EDATE(A471,1)</f>
         <v>44166</v>
@@ -13776,7 +13783,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13">
@@ -13794,7 +13801,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="47" t="s">
         <v>259</v>
       </c>
@@ -13812,7 +13819,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44197</v>
       </c>
@@ -13836,7 +13843,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13">
@@ -13854,7 +13861,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>44228</v>
@@ -13875,7 +13882,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f t="shared" ref="A480:A490" si="22">EDATE(A479,1)</f>
         <v>44256</v>
@@ -13896,7 +13903,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f t="shared" si="22"/>
         <v>44287</v>
@@ -13917,7 +13924,7 @@
       <c r="J481" s="12"/>
       <c r="K481" s="15"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f t="shared" si="22"/>
         <v>44317</v>
@@ -13938,7 +13945,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="22"/>
         <v>44348</v>
@@ -13959,7 +13966,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" si="22"/>
         <v>44378</v>
@@ -13980,7 +13987,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <f t="shared" si="22"/>
         <v>44409</v>
@@ -14001,7 +14008,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f t="shared" si="22"/>
         <v>44440</v>
@@ -14022,7 +14029,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f t="shared" si="22"/>
         <v>44470</v>
@@ -14045,7 +14052,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13">
@@ -14063,7 +14070,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f>EDATE(A487,1)</f>
         <v>44501</v>
@@ -14084,7 +14091,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f t="shared" si="22"/>
         <v>44531</v>
@@ -14109,7 +14116,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>144</v>
@@ -14129,7 +14136,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13">
@@ -14147,7 +14154,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="47" t="s">
         <v>263</v>
       </c>
@@ -14165,7 +14172,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>44562</v>
       </c>
@@ -14185,7 +14192,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f>EDATE(A494,1)</f>
         <v>44593</v>
@@ -14206,7 +14213,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A501" si="23">EDATE(A495,1)</f>
         <v>44621</v>
@@ -14231,7 +14238,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13">
@@ -14249,7 +14256,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f>EDATE(A496,1)</f>
         <v>44652</v>
@@ -14274,7 +14281,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -14292,7 +14299,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>44682</v>
@@ -14313,7 +14320,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="23"/>
         <v>44713</v>
@@ -14338,7 +14345,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -14356,7 +14363,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f>EDATE(A501,1)</f>
         <v>44743</v>
@@ -14381,7 +14388,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13">
@@ -14399,7 +14406,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A503,1)</f>
         <v>44774</v>
@@ -14424,7 +14431,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>62</v>
@@ -14446,7 +14453,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13">
@@ -14464,7 +14471,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44805</v>
       </c>
@@ -14490,7 +14497,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>272</v>
@@ -14512,7 +14519,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44835</v>
       </c>
@@ -14536,7 +14543,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44866</v>
       </c>
@@ -14562,7 +14569,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>268</v>
@@ -14584,7 +14591,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>271</v>
@@ -14604,7 +14611,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>44896</v>
       </c>
@@ -14630,7 +14637,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>271</v>
@@ -14650,7 +14657,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>268</v>
@@ -14672,7 +14679,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="47" t="s">
         <v>267</v>
       </c>
@@ -14690,7 +14697,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44927</v>
       </c>
@@ -14716,7 +14723,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>268</v>
@@ -14738,7 +14745,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44958</v>
       </c>
@@ -14764,7 +14771,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>276</v>
@@ -14786,7 +14793,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44986</v>
       </c>
@@ -14812,7 +14819,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>45017</v>
       </c>
@@ -14838,7 +14845,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>45047</v>
       </c>
@@ -14858,7 +14865,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>45078</v>
       </c>
@@ -14882,11 +14889,11 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A526" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B526" s="20"/>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A526" s="40"/>
+      <c r="B526" s="20" t="s">
+        <v>278</v>
+      </c>
       <c r="C526" s="13"/>
       <c r="D526" s="39"/>
       <c r="E526" s="9"/>
@@ -14898,11 +14905,13 @@
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="20"/>
-    </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K526" s="48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14918,9 +14927,9 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14936,9 +14945,9 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14954,9 +14963,9 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14972,9 +14981,9 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14990,9 +14999,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15008,9 +15017,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15026,9 +15035,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15044,9 +15053,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15062,9 +15071,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15080,9 +15089,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15098,9 +15107,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15116,9 +15125,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15134,9 +15143,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15152,9 +15161,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15170,9 +15179,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15188,9 +15197,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15206,9 +15215,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15224,9 +15233,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15242,9 +15251,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15260,9 +15269,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15278,9 +15287,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15296,9 +15305,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15314,9 +15323,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15332,9 +15341,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15350,9 +15359,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15368,9 +15377,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15386,9 +15395,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15404,9 +15413,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15422,9 +15431,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15440,9 +15449,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15458,9 +15467,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15476,9 +15485,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15494,9 +15503,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15512,9 +15521,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15530,9 +15539,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15548,9 +15557,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15566,9 +15575,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15584,9 +15593,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15602,9 +15611,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15620,9 +15629,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15638,9 +15647,9 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15656,9 +15665,9 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15674,9 +15683,9 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15692,9 +15701,9 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15710,9 +15719,9 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15728,9 +15737,9 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15746,9 +15755,9 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15764,9 +15773,9 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15782,9 +15791,9 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15800,9 +15809,9 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15818,9 +15827,9 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15836,9 +15845,9 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15854,9 +15863,9 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15872,9 +15881,9 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15890,9 +15899,9 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15908,9 +15917,9 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15926,9 +15935,9 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15944,9 +15953,9 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15962,9 +15971,9 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15980,9 +15989,9 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15998,9 +16007,9 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16016,9 +16025,9 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16034,9 +16043,9 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16052,9 +16061,9 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16070,9 +16079,9 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16088,9 +16097,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16106,9 +16115,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16124,9 +16133,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16142,9 +16151,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16160,9 +16169,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16178,9 +16187,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16196,9 +16205,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16214,9 +16223,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16232,9 +16241,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16250,9 +16259,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -16268,8 +16277,10 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" s="40"/>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A603" s="40">
+        <v>47423</v>
+      </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
       <c r="D603" s="39"/>
@@ -16284,7 +16295,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -16300,7 +16311,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -16316,7 +16327,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16332,7 +16343,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16348,7 +16359,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16364,7 +16375,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16380,7 +16391,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16396,7 +16407,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16412,7 +16423,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16428,7 +16439,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16444,7 +16455,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16460,7 +16471,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16476,7 +16487,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16492,7 +16503,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16508,7 +16519,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16524,7 +16535,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16540,7 +16551,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16556,7 +16567,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16572,7 +16583,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16588,7 +16599,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16604,7 +16615,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16620,7 +16631,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16636,7 +16647,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16652,7 +16663,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16668,7 +16679,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16684,7 +16695,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16700,7 +16711,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16716,7 +16727,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16732,7 +16743,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16748,7 +16759,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16764,7 +16775,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16780,7 +16791,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16796,7 +16807,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16812,7 +16823,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16828,7 +16839,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16844,7 +16855,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16860,7 +16871,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16876,7 +16887,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16892,7 +16903,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16908,7 +16919,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16924,7 +16935,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16940,7 +16951,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16956,7 +16967,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16972,7 +16983,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16988,7 +16999,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17004,7 +17015,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17020,7 +17031,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17036,7 +17047,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17052,7 +17063,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17068,7 +17079,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17084,7 +17095,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17100,7 +17111,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17116,7 +17127,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17132,7 +17143,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17148,7 +17159,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17164,7 +17175,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17180,7 +17191,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17196,7 +17207,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17212,7 +17223,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17228,7 +17239,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17244,7 +17255,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17260,7 +17271,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17276,7 +17287,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17292,7 +17303,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17308,7 +17319,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17324,7 +17335,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17340,7 +17351,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17356,7 +17367,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17372,7 +17383,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17388,7 +17399,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17404,7 +17415,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17420,7 +17431,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17436,7 +17447,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17452,7 +17463,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17468,7 +17479,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17484,7 +17495,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17500,7 +17511,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17516,7 +17527,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17532,7 +17543,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17548,7 +17559,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17564,7 +17575,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17580,7 +17591,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17596,7 +17607,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17612,7 +17623,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17628,7 +17639,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17644,7 +17655,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17660,7 +17671,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17676,7 +17687,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17692,7 +17703,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17708,7 +17719,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17724,7 +17735,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17740,7 +17751,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17756,7 +17767,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17772,7 +17783,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17788,7 +17799,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17804,7 +17815,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17820,7 +17831,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17836,21 +17847,37 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A701" s="53"/>
-      <c r="B701" s="15"/>
-      <c r="C701" s="41"/>
-      <c r="D701" s="42"/>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A701" s="40"/>
+      <c r="B701" s="20"/>
+      <c r="C701" s="13"/>
+      <c r="D701" s="39"/>
       <c r="E701" s="9"/>
-      <c r="F701" s="15"/>
-      <c r="G701" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H701" s="42"/>
+      <c r="F701" s="20"/>
+      <c r="G701" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H701" s="39"/>
       <c r="I701" s="9"/>
-      <c r="J701" s="12"/>
-      <c r="K701" s="15"/>
+      <c r="J701" s="11"/>
+      <c r="K701" s="20"/>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A702" s="53"/>
+      <c r="B702" s="15"/>
+      <c r="C702" s="41"/>
+      <c r="D702" s="42"/>
+      <c r="E702" s="9"/>
+      <c r="F702" s="15"/>
+      <c r="G702" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H702" s="42"/>
+      <c r="I702" s="9"/>
+      <c r="J702" s="12"/>
+      <c r="K702" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17867,10 +17894,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17893,7 +17920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17901,21 +17928,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -17928,7 +17955,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17957,7 +17984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17983,17 +18010,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18014,7 +18041,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18041,7 +18068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18067,7 +18094,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18093,7 +18120,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18119,7 +18146,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18145,7 +18172,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18171,7 +18198,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18197,7 +18224,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18223,7 +18250,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18243,7 +18270,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18263,7 +18290,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18283,7 +18310,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18304,7 +18331,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18325,7 +18352,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18346,7 +18373,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18367,7 +18394,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18388,7 +18415,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18409,7 +18436,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18430,7 +18457,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18451,7 +18478,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18472,7 +18499,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18493,7 +18520,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18514,7 +18541,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18535,7 +18562,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18556,7 +18583,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18577,7 +18604,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18598,7 +18625,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18619,7 +18646,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18640,7 +18667,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18661,7 +18688,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18682,7 +18709,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18703,7 +18730,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18712,7 +18739,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18721,7 +18748,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18730,7 +18757,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18739,7 +18766,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18748,7 +18775,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18757,7 +18784,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18766,7 +18793,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18775,7 +18802,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18784,7 +18811,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18793,7 +18820,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18802,7 +18829,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18811,7 +18838,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18820,7 +18847,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18829,7 +18856,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18838,7 +18865,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18847,7 +18874,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18856,7 +18883,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18865,7 +18892,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18874,7 +18901,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18883,7 +18910,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18892,7 +18919,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18901,7 +18928,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18910,7 +18937,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18919,7 +18946,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18928,7 +18955,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18937,7 +18964,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18946,7 +18973,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18955,7 +18982,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18964,7 +18991,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PAITON, MARY ANN.xlsx
+++ b/REGULAR/PAITON, MARY ANN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0542BD-6A83-44C9-8671-8F3951B28B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="280">
   <si>
     <t>PERIOD</t>
   </si>
@@ -880,7 +879,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1772,7 +1771,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1814,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1878,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1938,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2004,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2067,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2165,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2224,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2289,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2332,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2407,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2593,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2659,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2717,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2783,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2839,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +2914,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +2957,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3024,7 +3023,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3079,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3177,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3240,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,7 +3289,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3307,25 +3306,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K702" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K702" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3337,13 +3336,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3352,14 +3351,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3663,7 +3662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3673,7 +3672,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3681,34 +3680,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K702"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A517" activePane="bottomLeft"/>
+      <pane ySplit="3885" topLeftCell="A517" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="B527" sqref="B527"/>
+      <selection pane="bottomLeft" activeCell="I527" sqref="I527"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3729,7 +3728,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3747,7 +3746,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3769,7 +3768,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3777,7 +3776,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3790,7 +3789,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3807,7 +3806,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3851,7 +3850,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>167.61500000000001</v>
+        <v>168.86500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3861,12 +3860,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>199.75</v>
+        <v>200</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3888,7 +3887,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36220</v>
       </c>
@@ -3908,7 +3907,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36251</v>
@@ -3929,7 +3928,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A18" si="0">EDATE(A12,1)</f>
         <v>36281</v>
@@ -3950,7 +3949,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -3971,7 +3970,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -3992,7 +3991,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -4013,7 +4012,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -4034,7 +4033,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -4055,7 +4054,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>36465</v>
@@ -4078,7 +4077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -4096,7 +4095,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A19,1)</f>
         <v>36495</v>
@@ -4121,7 +4120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -4143,7 +4142,7 @@
         <v>36172</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4165,7 +4164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -4183,7 +4182,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>51</v>
       </c>
@@ -4201,7 +4200,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36526</v>
       </c>
@@ -4221,7 +4220,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f>EDATE(A26,1)</f>
         <v>36557</v>
@@ -4242,7 +4241,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" ref="A28:A39" si="1">EDATE(A27,1)</f>
         <v>36586</v>
@@ -4267,7 +4266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>44</v>
@@ -4287,7 +4286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -4305,7 +4304,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A28,1)</f>
         <v>36617</v>
@@ -4328,7 +4327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -4346,7 +4345,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36647</v>
@@ -4367,7 +4366,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -4388,7 +4387,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -4409,7 +4408,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -4430,7 +4429,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>36770</v>
@@ -4451,7 +4450,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -4472,7 +4471,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -4497,7 +4496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>44</v>
@@ -4517,7 +4516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4535,7 +4534,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36861</v>
@@ -4560,7 +4559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -4578,7 +4577,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>60</v>
       </c>
@@ -4596,7 +4595,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36892</v>
       </c>
@@ -4616,7 +4615,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>36923</v>
@@ -4637,7 +4636,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" ref="A47:A58" si="2">EDATE(A46,1)</f>
         <v>36951</v>
@@ -4662,7 +4661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4680,7 +4679,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36982</v>
@@ -4701,7 +4700,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -4722,7 +4721,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -4743,7 +4742,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -4764,7 +4763,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -4785,7 +4784,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -4810,7 +4809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>44</v>
@@ -4830,7 +4829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4848,7 +4847,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A54,1)</f>
         <v>37165</v>
@@ -4869,7 +4868,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>37196</v>
@@ -4894,7 +4893,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>46</v>
@@ -4916,7 +4915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4934,7 +4933,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A58,1)</f>
         <v>37226</v>
@@ -4955,7 +4954,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>67</v>
       </c>
@@ -4973,7 +4972,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37257</v>
       </c>
@@ -4993,7 +4992,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>37288</v>
@@ -5014,7 +5013,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A75" si="3">EDATE(A64,1)</f>
         <v>37316</v>
@@ -5039,7 +5038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -5057,7 +5056,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>37347</v>
@@ -5078,7 +5077,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>37377</v>
@@ -5101,7 +5100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -5119,7 +5118,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>37408</v>
@@ -5140,7 +5139,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A70,1)</f>
         <v>37438</v>
@@ -5165,7 +5164,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -5183,7 +5182,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A71,1)</f>
         <v>37469</v>
@@ -5204,7 +5203,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -5225,7 +5224,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -5250,7 +5249,7 @@
         <v>37325</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>44</v>
@@ -5270,7 +5269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -5288,7 +5287,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>37561</v>
@@ -5313,7 +5312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>58</v>
@@ -5335,7 +5334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -5353,7 +5352,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A78,1)</f>
         <v>37591</v>
@@ -5374,7 +5373,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
         <v>74</v>
       </c>
@@ -5392,7 +5391,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37622</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>44</v>
@@ -5436,7 +5435,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>55</v>
@@ -5458,7 +5457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>48</v>
@@ -5480,7 +5479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5498,7 +5497,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A83,1)</f>
         <v>37653</v>
@@ -5519,7 +5518,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" ref="A89:A106" si="4">EDATE(A88,1)</f>
         <v>37681</v>
@@ -5544,7 +5543,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>48</v>
@@ -5566,7 +5565,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5584,7 +5583,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A89,1)</f>
         <v>37712</v>
@@ -5609,7 +5608,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>44</v>
@@ -5629,7 +5628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5647,7 +5646,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>37742</v>
@@ -5672,7 +5671,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5690,7 +5689,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>37773</v>
@@ -5715,7 +5714,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>48</v>
@@ -5737,7 +5736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -5755,7 +5754,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A97,1)</f>
         <v>37803</v>
@@ -5780,7 +5779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5798,7 +5797,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>37834</v>
@@ -5821,7 +5820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>37865</v>
@@ -5842,7 +5841,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -5863,7 +5862,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="4"/>
         <v>37926</v>
@@ -5884,7 +5883,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -5909,7 +5908,7 @@
         <v>37633</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -5931,7 +5930,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5949,7 +5948,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
         <v>91</v>
       </c>
@@ -5967,7 +5966,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37987</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -6011,7 +6010,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -6029,7 +6028,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A110,1)</f>
         <v>38018</v>
@@ -6050,7 +6049,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" ref="A114:A122" si="5">EDATE(A113,1)</f>
         <v>38047</v>
@@ -6075,7 +6074,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -6093,7 +6092,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>38078</v>
@@ -6114,7 +6113,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -6139,7 +6138,7 @@
         <v>37992</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6157,7 +6156,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>38139</v>
@@ -6178,7 +6177,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -6199,7 +6198,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="5"/>
         <v>38200</v>
@@ -6220,7 +6219,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="5"/>
         <v>38231</v>
@@ -6245,7 +6244,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6263,7 +6262,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>38261</v>
@@ -6286,7 +6285,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6304,7 +6303,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>38292</v>
@@ -6325,7 +6324,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A126,1)</f>
         <v>38322</v>
@@ -6348,7 +6347,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6366,7 +6365,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
         <v>98</v>
       </c>
@@ -6384,7 +6383,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38353</v>
       </c>
@@ -6404,7 +6403,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A130,1)</f>
         <v>38384</v>
@@ -6427,7 +6426,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>48</v>
@@ -6449,7 +6448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -6467,7 +6466,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A131,1)</f>
         <v>38412</v>
@@ -6492,7 +6491,7 @@
         <v>38386</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -6510,7 +6509,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>38443</v>
@@ -6531,7 +6530,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A142" si="6">EDATE(A136,1)</f>
         <v>38473</v>
@@ -6552,7 +6551,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="6"/>
         <v>38504</v>
@@ -6577,7 +6576,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13">
@@ -6595,7 +6594,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f>EDATE(A138,1)</f>
         <v>38534</v>
@@ -6616,7 +6615,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="6"/>
         <v>38565</v>
@@ -6637,7 +6636,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -6662,7 +6661,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>103</v>
@@ -6684,7 +6683,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>44</v>
@@ -6704,7 +6703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6722,7 +6721,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A142,1)</f>
         <v>38626</v>
@@ -6743,7 +6742,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A146,1)</f>
         <v>38657</v>
@@ -6768,7 +6767,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>106</v>
@@ -6790,7 +6789,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
@@ -6808,7 +6807,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A147,1)</f>
         <v>38687</v>
@@ -6831,7 +6830,7 @@
         <v>38596</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -6849,7 +6848,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="47" t="s">
         <v>109</v>
       </c>
@@ -6867,7 +6866,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38718</v>
       </c>
@@ -6887,7 +6886,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A153,1)</f>
         <v>38749</v>
@@ -6908,7 +6907,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" ref="A155:A167" si="7">EDATE(A154,1)</f>
         <v>38777</v>
@@ -6933,7 +6932,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>48</v>
@@ -6955,7 +6954,7 @@
         <v>38781</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -6973,7 +6972,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38808</v>
@@ -6994,7 +6993,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -7015,7 +7014,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="7"/>
         <v>38869</v>
@@ -7036,7 +7035,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -7057,7 +7056,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -7080,7 +7079,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>85</v>
@@ -7102,7 +7101,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13">
@@ -7120,7 +7119,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>38961</v>
@@ -7141,7 +7140,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -7162,7 +7161,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -7187,7 +7186,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>115</v>
@@ -7207,7 +7206,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -7225,7 +7224,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A167,1)</f>
         <v>39052</v>
@@ -7246,7 +7245,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="47" t="s">
         <v>117</v>
       </c>
@@ -7264,7 +7263,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39083</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>39326</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -7304,7 +7303,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>39114</v>
@@ -7327,7 +7326,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -7345,7 +7344,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>39142</v>
@@ -7370,7 +7369,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13">
@@ -7388,7 +7387,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>39173</v>
@@ -7413,7 +7412,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" ref="A179:A184" si="8">EDATE(A178,1)</f>
         <v>39203</v>
@@ -7440,7 +7439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="8"/>
         <v>39234</v>
@@ -7461,7 +7460,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -7482,7 +7481,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -7507,7 +7506,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="8"/>
         <v>39326</v>
@@ -7532,7 +7531,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -7553,7 +7552,7 @@
       <c r="J184" s="12"/>
       <c r="K184" s="15"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>44</v>
@@ -7573,7 +7572,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>39387</v>
@@ -7600,7 +7599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>44</v>
@@ -7620,7 +7619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>39417</v>
@@ -7641,7 +7640,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>127</v>
       </c>
@@ -7659,7 +7658,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39448</v>
       </c>
@@ -7683,7 +7682,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f>EDATE(A190,1)</f>
         <v>39479</v>
@@ -7708,7 +7707,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" ref="A192:A202" si="9">EDATE(A191,1)</f>
         <v>39508</v>
@@ -7733,7 +7732,7 @@
       <c r="J192" s="12"/>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="9"/>
         <v>39539</v>
@@ -7758,7 +7757,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="9"/>
         <v>39569</v>
@@ -7783,7 +7782,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="9"/>
         <v>39600</v>
@@ -7808,7 +7807,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="9"/>
         <v>39630</v>
@@ -7833,7 +7832,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="9"/>
         <v>39661</v>
@@ -7858,7 +7857,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="9"/>
         <v>39692</v>
@@ -7881,7 +7880,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>44</v>
@@ -7901,7 +7900,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7919,7 +7918,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39722</v>
@@ -7944,7 +7943,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="9"/>
         <v>39753</v>
@@ -7967,7 +7966,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>139</v>
@@ -7989,7 +7988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>141</v>
@@ -8011,7 +8010,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>39783</v>
@@ -8036,7 +8035,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>143</v>
       </c>
@@ -8054,7 +8053,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39814</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -8094,7 +8093,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>39845</v>
@@ -8115,7 +8114,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" ref="A210:A221" si="10">EDATE(A209,1)</f>
         <v>39873</v>
@@ -8138,7 +8137,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -8156,7 +8155,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39904</v>
@@ -8177,7 +8176,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="10"/>
         <v>39934</v>
@@ -8198,7 +8197,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="10"/>
         <v>39965</v>
@@ -8219,7 +8218,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="10"/>
         <v>39995</v>
@@ -8240,7 +8239,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="10"/>
         <v>40026</v>
@@ -8261,7 +8260,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="10"/>
         <v>40057</v>
@@ -8282,7 +8281,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="10"/>
         <v>40087</v>
@@ -8307,7 +8306,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -8325,7 +8324,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>40118</v>
@@ -8346,7 +8345,7 @@
       <c r="J220" s="12"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="10"/>
         <v>40148</v>
@@ -8371,7 +8370,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>49</v>
@@ -8393,7 +8392,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -8411,7 +8410,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="47" t="s">
         <v>148</v>
       </c>
@@ -8429,7 +8428,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>40179</v>
       </c>
@@ -8449,7 +8448,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A225,1)</f>
         <v>40210</v>
@@ -8472,7 +8471,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -8490,7 +8489,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>40238</v>
@@ -8511,7 +8510,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" ref="A229:A233" si="11">EDATE(A228,1)</f>
         <v>40269</v>
@@ -8532,7 +8531,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="11"/>
         <v>40299</v>
@@ -8557,7 +8556,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="11"/>
         <v>40330</v>
@@ -8582,7 +8581,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="11"/>
         <v>40360</v>
@@ -8607,7 +8606,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="11"/>
         <v>40391</v>
@@ -8632,7 +8631,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8650,7 +8649,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>40422</v>
@@ -8675,7 +8674,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>122</v>
@@ -8697,7 +8696,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>40452</v>
@@ -8720,7 +8719,7 @@
         <v>40401</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13">
@@ -8738,7 +8737,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>40483</v>
@@ -8763,7 +8762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13">
@@ -8781,7 +8780,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>40513</v>
@@ -8802,7 +8801,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="47" t="s">
         <v>156</v>
       </c>
@@ -8820,7 +8819,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40544</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>40848</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8860,7 +8859,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40575</v>
@@ -8881,7 +8880,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A255" si="12">EDATE(A245,1)</f>
         <v>40603</v>
@@ -8902,7 +8901,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="12"/>
         <v>40634</v>
@@ -8923,7 +8922,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="12"/>
         <v>40664</v>
@@ -8948,7 +8947,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>48</v>
@@ -8970,7 +8969,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13">
@@ -8988,7 +8987,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A248,1)</f>
         <v>40695</v>
@@ -9009,7 +9008,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="12"/>
         <v>40725</v>
@@ -9030,7 +9029,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="12"/>
         <v>40756</v>
@@ -9051,7 +9050,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="12"/>
         <v>40787</v>
@@ -9072,7 +9071,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="12"/>
         <v>40817</v>
@@ -9095,7 +9094,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>152</v>
@@ -9117,7 +9116,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>40848</v>
@@ -9142,7 +9141,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>44</v>
@@ -9162,7 +9161,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9180,7 +9179,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>40878</v>
@@ -9202,7 +9201,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>161</v>
@@ -9224,7 +9223,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="47" t="s">
         <v>162</v>
       </c>
@@ -9242,7 +9241,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40909</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>41153</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>48</v>
@@ -9286,7 +9285,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13">
@@ -9304,7 +9303,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A263,1)</f>
         <v>40940</v>
@@ -9329,7 +9328,7 @@
         <v>40941</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -9347,7 +9346,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="48"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40969</v>
@@ -9372,7 +9371,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>44</v>
@@ -9392,7 +9391,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13">
@@ -9410,7 +9409,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>41000</v>
@@ -9435,7 +9434,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A278" si="13">EDATE(A271,1)</f>
         <v>41030</v>
@@ -9460,7 +9459,7 @@
         <v>41095</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -9478,7 +9477,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>41061</v>
@@ -9503,7 +9502,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="13"/>
         <v>41091</v>
@@ -9528,7 +9527,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -9546,7 +9545,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>41122</v>
@@ -9567,7 +9566,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="13"/>
         <v>41153</v>
@@ -9592,7 +9591,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9610,7 +9609,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>41183</v>
@@ -9633,7 +9632,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13">
@@ -9651,7 +9650,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>41214</v>
@@ -9676,7 +9675,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9694,7 +9693,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>41244</v>
@@ -9715,7 +9714,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="47" t="s">
         <v>170</v>
       </c>
@@ -9733,7 +9732,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>41275</v>
       </c>
@@ -9757,7 +9756,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>171</v>
@@ -9777,7 +9776,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>41306</v>
@@ -9802,7 +9801,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" ref="A289:A295" si="14">EDATE(A288,1)</f>
         <v>41334</v>
@@ -9827,7 +9826,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="14"/>
         <v>41365</v>
@@ -9852,7 +9851,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="14"/>
         <v>41395</v>
@@ -9873,7 +9872,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="14"/>
         <v>41426</v>
@@ -9894,7 +9893,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="14"/>
         <v>41456</v>
@@ -9915,7 +9914,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="14"/>
         <v>41487</v>
@@ -9936,7 +9935,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="14"/>
         <v>41518</v>
@@ -9961,7 +9960,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13">
@@ -9979,7 +9978,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A295,1)</f>
         <v>41548</v>
@@ -10002,7 +10001,7 @@
         <v>41405</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -10024,7 +10023,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -10042,7 +10041,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A297,1)</f>
         <v>41579</v>
@@ -10067,7 +10066,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13">
@@ -10085,7 +10084,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>41609</v>
@@ -10106,7 +10105,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="47" t="s">
         <v>176</v>
       </c>
@@ -10124,7 +10123,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>41640</v>
       </c>
@@ -10146,7 +10145,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13">
@@ -10164,7 +10163,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>41671</v>
@@ -10185,7 +10184,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A319" si="15">EDATE(A306,1)</f>
         <v>41699</v>
@@ -10210,7 +10209,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>48</v>
@@ -10232,7 +10231,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -10250,7 +10249,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A307,1)</f>
         <v>41730</v>
@@ -10275,7 +10274,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13">
@@ -10293,7 +10292,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>41760</v>
@@ -10314,7 +10313,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="15"/>
         <v>41791</v>
@@ -10339,7 +10338,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -10357,7 +10356,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>41821</v>
@@ -10382,7 +10381,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>152</v>
@@ -10404,7 +10403,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f>EDATE(A315,1)</f>
         <v>41852</v>
@@ -10429,7 +10428,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -10454,7 +10453,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="15"/>
         <v>41913</v>
@@ -10479,7 +10478,7 @@
         <v>41830</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>44</v>
@@ -10499,7 +10498,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>183</v>
@@ -10521,7 +10520,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>41944</v>
@@ -10546,7 +10545,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>185</v>
@@ -10568,7 +10567,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>187</v>
@@ -10590,7 +10589,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>41974</v>
@@ -10615,7 +10614,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="47" t="s">
         <v>189</v>
       </c>
@@ -10633,7 +10632,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>42005</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -10673,7 +10672,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>42036</v>
@@ -10698,7 +10697,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>152</v>
@@ -10720,7 +10719,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>42064</v>
@@ -10743,7 +10742,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13">
@@ -10761,7 +10760,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>42095</v>
@@ -10782,7 +10781,7 @@
       <c r="J333" s="12"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" ref="A334:A345" si="16">EDATE(A333,1)</f>
         <v>42125</v>
@@ -10807,7 +10806,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="16"/>
         <v>42156</v>
@@ -10832,7 +10831,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="16"/>
         <v>42186</v>
@@ -10857,7 +10856,7 @@
         <v>42042</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>193</v>
@@ -10879,7 +10878,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>42217</v>
@@ -10900,7 +10899,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" si="16"/>
         <v>42248</v>
@@ -10925,7 +10924,7 @@
         <v>42044</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -10943,7 +10942,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>42278</v>
@@ -10968,7 +10967,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>195</v>
@@ -10990,7 +10989,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13">
@@ -11008,7 +11007,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>42309</v>
@@ -11033,7 +11032,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="16"/>
         <v>42339</v>
@@ -11058,7 +11057,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="47" t="s">
         <v>198</v>
       </c>
@@ -11076,7 +11075,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>42370</v>
       </c>
@@ -11096,7 +11095,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A347,1)</f>
         <v>42401</v>
@@ -11121,7 +11120,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13">
@@ -11139,7 +11138,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f>EDATE(A348,1)</f>
         <v>42430</v>
@@ -11160,7 +11159,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" ref="A351:A365" si="17">EDATE(A350,1)</f>
         <v>42461</v>
@@ -11185,7 +11184,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>200</v>
@@ -11207,7 +11206,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -11225,7 +11224,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>42491</v>
@@ -11250,7 +11249,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>48</v>
@@ -11272,7 +11271,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>44</v>
@@ -11292,7 +11291,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>48</v>
@@ -11312,7 +11311,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13">
@@ -11330,7 +11329,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A354,1)</f>
         <v>42522</v>
@@ -11351,7 +11350,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -11372,7 +11371,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -11397,7 +11396,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13">
@@ -11415,7 +11414,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>42614</v>
@@ -11436,7 +11435,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="17"/>
         <v>42644</v>
@@ -11457,7 +11456,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" si="17"/>
         <v>42675</v>
@@ -11480,7 +11479,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>139</v>
@@ -11502,7 +11501,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13">
@@ -11520,7 +11519,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>42705</v>
@@ -11541,7 +11540,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="47" t="s">
         <v>208</v>
       </c>
@@ -11559,7 +11558,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>42736</v>
       </c>
@@ -11583,7 +11582,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>48</v>
@@ -11605,7 +11604,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -11623,7 +11622,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f>EDATE(A370,1)</f>
         <v>42767</v>
@@ -11648,7 +11647,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>48</v>
@@ -11670,7 +11669,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13">
@@ -11688,7 +11687,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A373,1)</f>
         <v>42795</v>
@@ -11713,7 +11712,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>48</v>
@@ -11735,7 +11734,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>44</v>
@@ -11755,7 +11754,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>62</v>
@@ -11777,7 +11776,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>44</v>
@@ -11797,7 +11796,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13">
@@ -11815,7 +11814,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f>EDATE(A376,1)</f>
         <v>42826</v>
@@ -11836,7 +11835,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" ref="A383:A390" si="18">EDATE(A382,1)</f>
         <v>42856</v>
@@ -11857,7 +11856,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="18"/>
         <v>42887</v>
@@ -11878,7 +11877,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="18"/>
         <v>42917</v>
@@ -11901,7 +11900,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13">
@@ -11919,7 +11918,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f>EDATE(A385,1)</f>
         <v>42948</v>
@@ -11944,7 +11943,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -11962,7 +11961,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A387,1)</f>
         <v>42979</v>
@@ -11983,7 +11982,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -12006,7 +12005,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13">
@@ -12024,7 +12023,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f>EDATE(A390,1)</f>
         <v>43040</v>
@@ -12049,7 +12048,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13">
@@ -12067,7 +12066,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>43070</v>
@@ -12088,7 +12087,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="47" t="s">
         <v>220</v>
       </c>
@@ -12106,7 +12105,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43101</v>
       </c>
@@ -12130,7 +12129,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -12152,7 +12151,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>48</v>
@@ -12174,7 +12173,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13">
@@ -12192,7 +12191,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A396,1)</f>
         <v>43132</v>
@@ -12213,7 +12212,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" ref="A401:A415" si="19">EDATE(A400,1)</f>
         <v>43160</v>
@@ -12238,7 +12237,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>44</v>
@@ -12258,7 +12257,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13">
@@ -12276,7 +12275,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A401,1)</f>
         <v>43191</v>
@@ -12297,7 +12296,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="19"/>
         <v>43221</v>
@@ -12318,7 +12317,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="19"/>
         <v>43252</v>
@@ -12343,7 +12342,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13">
@@ -12361,7 +12360,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A406,1)</f>
         <v>43282</v>
@@ -12386,7 +12385,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -12404,7 +12403,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>43313</v>
@@ -12429,7 +12428,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>48</v>
@@ -12451,7 +12450,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -12473,7 +12472,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13">
@@ -12491,7 +12490,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A410,1)</f>
         <v>43344</v>
@@ -12512,7 +12511,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" si="19"/>
         <v>43374</v>
@@ -12537,7 +12536,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>44</v>
@@ -12557,7 +12556,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -12579,7 +12578,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13">
@@ -12597,7 +12596,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A415,1)</f>
         <v>43405</v>
@@ -12620,7 +12619,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13">
@@ -12638,7 +12637,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>43435</v>
@@ -12661,7 +12660,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13">
@@ -12679,7 +12678,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="47" t="s">
         <v>232</v>
       </c>
@@ -12697,7 +12696,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43466</v>
       </c>
@@ -12721,7 +12720,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13">
@@ -12739,7 +12738,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EDATE(A424,1)</f>
         <v>43497</v>
@@ -12762,7 +12761,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>48</v>
@@ -12784,7 +12783,7 @@
         <v>43801</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
@@ -12802,7 +12801,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A426,1)</f>
         <v>43525</v>
@@ -12825,7 +12824,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>48</v>
@@ -12847,7 +12846,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>48</v>
@@ -12869,7 +12868,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13">
@@ -12887,7 +12886,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A429,1)</f>
         <v>43556</v>
@@ -12912,7 +12911,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -12934,7 +12933,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>48</v>
@@ -12956,7 +12955,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>62</v>
@@ -12978,7 +12977,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13">
@@ -12996,7 +12995,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f>EDATE(A433,1)</f>
         <v>43586</v>
@@ -13017,7 +13016,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f t="shared" ref="A439:A451" si="20">EDATE(A438,1)</f>
         <v>43617</v>
@@ -13042,7 +13041,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -13064,7 +13063,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -13082,7 +13081,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A439,1)</f>
         <v>43647</v>
@@ -13107,7 +13106,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>48</v>
@@ -13129,7 +13128,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>48</v>
@@ -13151,7 +13150,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13">
@@ -13169,7 +13168,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f>EDATE(A442,1)</f>
         <v>43678</v>
@@ -13190,7 +13189,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="20"/>
         <v>43709</v>
@@ -13215,7 +13214,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>48</v>
@@ -13237,7 +13236,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13">
@@ -13255,7 +13254,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43739</v>
@@ -13276,7 +13275,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="20"/>
         <v>43770</v>
@@ -13299,7 +13298,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>139</v>
@@ -13321,7 +13320,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13">
@@ -13339,7 +13338,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>43800</v>
@@ -13364,7 +13363,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13">
@@ -13382,7 +13381,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="47" t="s">
         <v>249</v>
       </c>
@@ -13400,7 +13399,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43831</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>251</v>
@@ -13444,7 +13443,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>48</v>
@@ -13466,7 +13465,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13">
@@ -13484,7 +13483,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <f>EDATE(A457,1)</f>
         <v>43862</v>
@@ -13505,7 +13504,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f t="shared" ref="A462:A471" si="21">EDATE(A461,1)</f>
         <v>43891</v>
@@ -13526,7 +13525,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" si="21"/>
         <v>43922</v>
@@ -13547,7 +13546,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="21"/>
         <v>43952</v>
@@ -13568,7 +13567,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f t="shared" si="21"/>
         <v>43983</v>
@@ -13593,7 +13592,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13">
@@ -13611,7 +13610,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f>EDATE(A465,1)</f>
         <v>44013</v>
@@ -13632,7 +13631,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f t="shared" si="21"/>
         <v>44044</v>
@@ -13653,7 +13652,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="21"/>
         <v>44075</v>
@@ -13674,7 +13673,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="21"/>
         <v>44105</v>
@@ -13695,7 +13694,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f t="shared" si="21"/>
         <v>44136</v>
@@ -13718,7 +13717,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -13740,7 +13739,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13">
@@ -13758,7 +13757,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f>EDATE(A471,1)</f>
         <v>44166</v>
@@ -13783,7 +13782,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13">
@@ -13801,7 +13800,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="47" t="s">
         <v>259</v>
       </c>
@@ -13819,7 +13818,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44197</v>
       </c>
@@ -13843,7 +13842,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13">
@@ -13861,7 +13860,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>44228</v>
@@ -13882,7 +13881,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f t="shared" ref="A480:A490" si="22">EDATE(A479,1)</f>
         <v>44256</v>
@@ -13903,7 +13902,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f t="shared" si="22"/>
         <v>44287</v>
@@ -13924,7 +13923,7 @@
       <c r="J481" s="12"/>
       <c r="K481" s="15"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f t="shared" si="22"/>
         <v>44317</v>
@@ -13945,7 +13944,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="22"/>
         <v>44348</v>
@@ -13966,7 +13965,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f t="shared" si="22"/>
         <v>44378</v>
@@ -13987,7 +13986,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f t="shared" si="22"/>
         <v>44409</v>
@@ -14008,7 +14007,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f t="shared" si="22"/>
         <v>44440</v>
@@ -14029,7 +14028,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f t="shared" si="22"/>
         <v>44470</v>
@@ -14052,7 +14051,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13">
@@ -14070,7 +14069,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f>EDATE(A487,1)</f>
         <v>44501</v>
@@ -14091,7 +14090,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="22"/>
         <v>44531</v>
@@ -14116,7 +14115,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>144</v>
@@ -14136,7 +14135,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13">
@@ -14154,7 +14153,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="47" t="s">
         <v>263</v>
       </c>
@@ -14172,7 +14171,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44562</v>
       </c>
@@ -14192,7 +14191,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f>EDATE(A494,1)</f>
         <v>44593</v>
@@ -14213,7 +14212,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A501" si="23">EDATE(A495,1)</f>
         <v>44621</v>
@@ -14238,7 +14237,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13">
@@ -14256,7 +14255,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A496,1)</f>
         <v>44652</v>
@@ -14281,7 +14280,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -14299,7 +14298,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>44682</v>
@@ -14320,7 +14319,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="23"/>
         <v>44713</v>
@@ -14345,7 +14344,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -14363,7 +14362,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A501,1)</f>
         <v>44743</v>
@@ -14388,7 +14387,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13">
@@ -14406,7 +14405,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A503,1)</f>
         <v>44774</v>
@@ -14431,7 +14430,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>62</v>
@@ -14453,7 +14452,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13">
@@ -14471,7 +14470,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44805</v>
       </c>
@@ -14497,7 +14496,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>272</v>
@@ -14519,7 +14518,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44835</v>
       </c>
@@ -14543,7 +14542,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44866</v>
       </c>
@@ -14569,7 +14568,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>268</v>
@@ -14591,7 +14590,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>271</v>
@@ -14611,7 +14610,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44896</v>
       </c>
@@ -14637,7 +14636,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>271</v>
@@ -14657,7 +14656,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>268</v>
@@ -14679,7 +14678,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="47" t="s">
         <v>267</v>
       </c>
@@ -14697,7 +14696,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44927</v>
       </c>
@@ -14723,7 +14722,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>268</v>
@@ -14745,7 +14744,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44958</v>
       </c>
@@ -14771,7 +14770,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>276</v>
@@ -14793,7 +14792,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44986</v>
       </c>
@@ -14819,7 +14818,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>45017</v>
       </c>
@@ -14845,7 +14844,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>45047</v>
       </c>
@@ -14865,20 +14864,22 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45078</v>
       </c>
       <c r="B525" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C525" s="13"/>
+      <c r="C525" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D525" s="39"/>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G525" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H525" s="39">
         <v>1</v>
@@ -14889,7 +14890,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>278</v>
@@ -14909,11 +14910,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45108</v>
       </c>
-      <c r="B527" s="20"/>
+      <c r="B527" s="20" t="s">
+        <v>268</v>
+      </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
       <c r="E527" s="9"/>
@@ -14922,12 +14925,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H527" s="39"/>
+      <c r="H527" s="39">
+        <v>1</v>
+      </c>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="20"/>
-    </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K527" s="48">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45139</v>
       </c>
@@ -14945,7 +14952,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45170</v>
       </c>
@@ -14963,7 +14970,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45200</v>
       </c>
@@ -14981,7 +14988,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45231</v>
       </c>
@@ -14999,7 +15006,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>45261</v>
       </c>
@@ -15017,7 +15024,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>45292</v>
       </c>
@@ -15035,7 +15042,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45323</v>
       </c>
@@ -15053,7 +15060,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>45352</v>
       </c>
@@ -15071,7 +15078,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>45383</v>
       </c>
@@ -15089,7 +15096,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45413</v>
       </c>
@@ -15107,7 +15114,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>45444</v>
       </c>
@@ -15125,7 +15132,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>45474</v>
       </c>
@@ -15143,7 +15150,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>45505</v>
       </c>
@@ -15161,7 +15168,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>45536</v>
       </c>
@@ -15179,7 +15186,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45566</v>
       </c>
@@ -15197,7 +15204,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45597</v>
       </c>
@@ -15215,7 +15222,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45627</v>
       </c>
@@ -15233,7 +15240,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45658</v>
       </c>
@@ -15251,7 +15258,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45689</v>
       </c>
@@ -15269,7 +15276,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45717</v>
       </c>
@@ -15287,7 +15294,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45748</v>
       </c>
@@ -15305,7 +15312,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45778</v>
       </c>
@@ -15323,7 +15330,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45809</v>
       </c>
@@ -15341,7 +15348,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45839</v>
       </c>
@@ -15359,7 +15366,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45870</v>
       </c>
@@ -15377,7 +15384,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45901</v>
       </c>
@@ -15395,7 +15402,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45931</v>
       </c>
@@ -15413,7 +15420,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>45962</v>
       </c>
@@ -15431,7 +15438,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>45992</v>
       </c>
@@ -15449,7 +15456,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>46023</v>
       </c>
@@ -15467,7 +15474,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>46054</v>
       </c>
@@ -15485,7 +15492,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>46082</v>
       </c>
@@ -15503,7 +15510,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>46113</v>
       </c>
@@ -15521,7 +15528,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>46143</v>
       </c>
@@ -15539,7 +15546,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>46174</v>
       </c>
@@ -15557,7 +15564,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>46204</v>
       </c>
@@ -15575,7 +15582,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>46235</v>
       </c>
@@ -15593,7 +15600,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>46266</v>
       </c>
@@ -15611,7 +15618,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>46296</v>
       </c>
@@ -15629,7 +15636,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>46327</v>
       </c>
@@ -15647,7 +15654,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>46357</v>
       </c>
@@ -15665,7 +15672,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>46388</v>
       </c>
@@ -15683,7 +15690,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>46419</v>
       </c>
@@ -15701,7 +15708,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>46447</v>
       </c>
@@ -15719,7 +15726,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>46478</v>
       </c>
@@ -15737,7 +15744,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>46508</v>
       </c>
@@ -15755,7 +15762,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>46539</v>
       </c>
@@ -15773,7 +15780,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>46569</v>
       </c>
@@ -15791,7 +15798,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>46600</v>
       </c>
@@ -15809,7 +15816,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>46631</v>
       </c>
@@ -15827,7 +15834,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>46661</v>
       </c>
@@ -15845,7 +15852,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>46692</v>
       </c>
@@ -15863,7 +15870,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>46722</v>
       </c>
@@ -15881,7 +15888,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>46753</v>
       </c>
@@ -15899,7 +15906,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>46784</v>
       </c>
@@ -15917,7 +15924,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>46813</v>
       </c>
@@ -15935,7 +15942,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>46844</v>
       </c>
@@ -15953,7 +15960,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>46874</v>
       </c>
@@ -15971,7 +15978,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>46905</v>
       </c>
@@ -15989,7 +15996,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>46935</v>
       </c>
@@ -16007,7 +16014,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>46966</v>
       </c>
@@ -16025,7 +16032,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>46997</v>
       </c>
@@ -16043,7 +16050,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>47027</v>
       </c>
@@ -16061,7 +16068,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>47058</v>
       </c>
@@ -16079,7 +16086,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>47088</v>
       </c>
@@ -16097,7 +16104,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>47119</v>
       </c>
@@ -16115,7 +16122,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>47150</v>
       </c>
@@ -16133,7 +16140,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>47178</v>
       </c>
@@ -16151,7 +16158,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>47209</v>
       </c>
@@ -16169,7 +16176,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>47239</v>
       </c>
@@ -16187,7 +16194,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>47270</v>
       </c>
@@ -16205,7 +16212,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>47300</v>
       </c>
@@ -16223,7 +16230,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>47331</v>
       </c>
@@ -16241,7 +16248,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>47362</v>
       </c>
@@ -16259,7 +16266,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>47392</v>
       </c>
@@ -16277,7 +16284,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>47423</v>
       </c>
@@ -16295,7 +16302,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -16311,7 +16318,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -16327,7 +16334,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16343,7 +16350,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16359,7 +16366,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16375,7 +16382,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16391,7 +16398,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16407,7 +16414,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16423,7 +16430,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16439,7 +16446,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16455,7 +16462,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16471,7 +16478,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16487,7 +16494,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16503,7 +16510,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16519,7 +16526,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16535,7 +16542,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16551,7 +16558,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16567,7 +16574,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16583,7 +16590,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16599,7 +16606,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16615,7 +16622,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16631,7 +16638,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16647,7 +16654,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16663,7 +16670,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16679,7 +16686,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16695,7 +16702,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16711,7 +16718,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16727,7 +16734,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16743,7 +16750,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16759,7 +16766,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16775,7 +16782,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16791,7 +16798,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16807,7 +16814,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16823,7 +16830,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16839,7 +16846,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16855,7 +16862,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16871,7 +16878,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16887,7 +16894,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16903,7 +16910,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16919,7 +16926,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16935,7 +16942,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16951,7 +16958,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16967,7 +16974,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16983,7 +16990,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16999,7 +17006,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17015,7 +17022,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17031,7 +17038,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17047,7 +17054,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17063,7 +17070,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17079,7 +17086,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17095,7 +17102,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17111,7 +17118,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17127,7 +17134,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17143,7 +17150,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17159,7 +17166,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17175,7 +17182,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17191,7 +17198,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17207,7 +17214,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17223,7 +17230,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17239,7 +17246,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17255,7 +17262,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17271,7 +17278,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17287,7 +17294,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17303,7 +17310,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17319,7 +17326,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17335,7 +17342,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17351,7 +17358,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17367,7 +17374,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17383,7 +17390,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17399,7 +17406,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17415,7 +17422,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17431,7 +17438,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17447,7 +17454,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17463,7 +17470,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17479,7 +17486,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17495,7 +17502,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17511,7 +17518,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17527,7 +17534,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17543,7 +17550,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17559,7 +17566,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17575,7 +17582,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17591,7 +17598,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17607,7 +17614,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17623,7 +17630,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17639,7 +17646,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17655,7 +17662,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17671,7 +17678,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17687,7 +17694,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17703,7 +17710,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17719,7 +17726,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17735,7 +17742,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17751,7 +17758,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17767,7 +17774,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17783,7 +17790,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17799,7 +17806,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17815,7 +17822,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17831,7 +17838,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17847,7 +17854,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17863,7 +17870,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="53"/>
       <c r="B702" s="15"/>
       <c r="C702" s="41"/>
@@ -17894,10 +17901,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17920,7 +17927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17928,21 +17935,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -17955,7 +17962,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17984,7 +17991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -18010,17 +18017,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18041,7 +18048,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18068,7 +18075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18094,7 +18101,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18120,7 +18127,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18146,7 +18153,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18172,7 +18179,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18198,7 +18205,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18224,7 +18231,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18250,7 +18257,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18270,7 +18277,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18290,7 +18297,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18310,7 +18317,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18331,7 +18338,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18352,7 +18359,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18373,7 +18380,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18394,7 +18401,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18415,7 +18422,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18436,7 +18443,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18457,7 +18464,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18478,7 +18485,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18499,7 +18506,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18520,7 +18527,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18541,7 +18548,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18562,7 +18569,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18583,7 +18590,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18604,7 +18611,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18625,7 +18632,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18646,7 +18653,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18667,7 +18674,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18688,7 +18695,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18709,7 +18716,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18730,7 +18737,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18739,7 +18746,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18748,7 +18755,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18757,7 +18764,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18766,7 +18773,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18775,7 +18782,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18784,7 +18791,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18793,7 +18800,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18802,7 +18809,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18811,7 +18818,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18820,7 +18827,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18829,7 +18836,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18838,7 +18845,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18847,7 +18854,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18856,7 +18863,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18865,7 +18872,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18874,7 +18881,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18883,7 +18890,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18892,7 +18899,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18901,7 +18908,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18910,7 +18917,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18919,7 +18926,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18928,7 +18935,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18937,7 +18944,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18946,7 +18953,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18955,7 +18962,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18964,7 +18971,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18973,7 +18980,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18982,7 +18989,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18991,7 +18998,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
